--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="alldata" sheetId="1" r:id="rId1"/>
@@ -2676,14 +2676,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P155" sqref="P155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9762,10 +9763,10 @@
         <v>486</v>
       </c>
       <c r="O152" t="s">
+        <v>281</v>
+      </c>
+      <c r="P152" t="s">
         <v>280</v>
-      </c>
-      <c r="P152" t="s">
-        <v>281</v>
       </c>
       <c r="Q152" t="s">
         <v>321</v>
@@ -9806,10 +9807,10 @@
         <v>486</v>
       </c>
       <c r="O153" t="s">
+        <v>281</v>
+      </c>
+      <c r="P153" t="s">
         <v>280</v>
-      </c>
-      <c r="P153" t="s">
-        <v>281</v>
       </c>
       <c r="Q153" t="s">
         <v>321</v>
@@ -9850,10 +9851,10 @@
         <v>486</v>
       </c>
       <c r="O154" t="s">
+        <v>281</v>
+      </c>
+      <c r="P154" t="s">
         <v>280</v>
-      </c>
-      <c r="P154" t="s">
-        <v>281</v>
       </c>
       <c r="Q154" t="s">
         <v>321</v>
@@ -9894,10 +9895,10 @@
         <v>486</v>
       </c>
       <c r="O155" t="s">
+        <v>281</v>
+      </c>
+      <c r="P155" t="s">
         <v>280</v>
-      </c>
-      <c r="P155" t="s">
-        <v>281</v>
       </c>
       <c r="Q155" t="s">
         <v>321</v>
@@ -9938,10 +9939,10 @@
         <v>486</v>
       </c>
       <c r="O156" t="s">
+        <v>281</v>
+      </c>
+      <c r="P156" t="s">
         <v>280</v>
-      </c>
-      <c r="P156" t="s">
-        <v>281</v>
       </c>
       <c r="Q156" t="s">
         <v>321</v>
@@ -9982,10 +9983,10 @@
         <v>486</v>
       </c>
       <c r="O157" t="s">
+        <v>281</v>
+      </c>
+      <c r="P157" t="s">
         <v>280</v>
-      </c>
-      <c r="P157" t="s">
-        <v>281</v>
       </c>
       <c r="Q157" t="s">
         <v>321</v>
@@ -10026,10 +10027,10 @@
         <v>486</v>
       </c>
       <c r="O158" t="s">
+        <v>281</v>
+      </c>
+      <c r="P158" t="s">
         <v>280</v>
-      </c>
-      <c r="P158" t="s">
-        <v>281</v>
       </c>
       <c r="Q158" t="s">
         <v>321</v>
@@ -10070,10 +10071,10 @@
         <v>486</v>
       </c>
       <c r="O159" t="s">
+        <v>281</v>
+      </c>
+      <c r="P159" t="s">
         <v>280</v>
-      </c>
-      <c r="P159" t="s">
-        <v>281</v>
       </c>
       <c r="Q159" t="s">
         <v>321</v>
@@ -10114,10 +10115,10 @@
         <v>486</v>
       </c>
       <c r="O160" t="s">
+        <v>281</v>
+      </c>
+      <c r="P160" t="s">
         <v>280</v>
-      </c>
-      <c r="P160" t="s">
-        <v>281</v>
       </c>
       <c r="Q160" t="s">
         <v>321</v>
@@ -10158,10 +10159,10 @@
         <v>486</v>
       </c>
       <c r="O161" t="s">
+        <v>281</v>
+      </c>
+      <c r="P161" t="s">
         <v>280</v>
-      </c>
-      <c r="P161" t="s">
-        <v>281</v>
       </c>
       <c r="Q161" t="s">
         <v>321</v>
@@ -10202,10 +10203,10 @@
         <v>486</v>
       </c>
       <c r="O162" t="s">
+        <v>281</v>
+      </c>
+      <c r="P162" t="s">
         <v>280</v>
-      </c>
-      <c r="P162" t="s">
-        <v>281</v>
       </c>
       <c r="Q162" t="s">
         <v>321</v>
@@ -10246,10 +10247,10 @@
         <v>486</v>
       </c>
       <c r="O163" t="s">
+        <v>281</v>
+      </c>
+      <c r="P163" t="s">
         <v>280</v>
-      </c>
-      <c r="P163" t="s">
-        <v>281</v>
       </c>
       <c r="Q163" t="s">
         <v>321</v>
@@ -10290,10 +10291,10 @@
         <v>486</v>
       </c>
       <c r="O164" t="s">
+        <v>281</v>
+      </c>
+      <c r="P164" t="s">
         <v>280</v>
-      </c>
-      <c r="P164" t="s">
-        <v>281</v>
       </c>
       <c r="Q164" t="s">
         <v>321</v>
@@ -10334,10 +10335,10 @@
         <v>486</v>
       </c>
       <c r="O165" t="s">
+        <v>281</v>
+      </c>
+      <c r="P165" t="s">
         <v>280</v>
-      </c>
-      <c r="P165" t="s">
-        <v>281</v>
       </c>
       <c r="Q165" t="s">
         <v>321</v>
@@ -10378,10 +10379,10 @@
         <v>486</v>
       </c>
       <c r="O166" t="s">
+        <v>281</v>
+      </c>
+      <c r="P166" t="s">
         <v>280</v>
-      </c>
-      <c r="P166" t="s">
-        <v>281</v>
       </c>
       <c r="Q166" t="s">
         <v>321</v>
@@ -10422,10 +10423,10 @@
         <v>486</v>
       </c>
       <c r="O167" t="s">
+        <v>281</v>
+      </c>
+      <c r="P167" t="s">
         <v>280</v>
-      </c>
-      <c r="P167" t="s">
-        <v>281</v>
       </c>
       <c r="Q167" t="s">
         <v>321</v>
@@ -10466,10 +10467,10 @@
         <v>486</v>
       </c>
       <c r="O168" t="s">
+        <v>281</v>
+      </c>
+      <c r="P168" t="s">
         <v>280</v>
-      </c>
-      <c r="P168" t="s">
-        <v>281</v>
       </c>
       <c r="Q168" t="s">
         <v>321</v>
@@ -10510,10 +10511,10 @@
         <v>486</v>
       </c>
       <c r="O169" t="s">
+        <v>281</v>
+      </c>
+      <c r="P169" t="s">
         <v>280</v>
-      </c>
-      <c r="P169" t="s">
-        <v>281</v>
       </c>
       <c r="Q169" t="s">
         <v>321</v>
@@ -10554,10 +10555,10 @@
         <v>486</v>
       </c>
       <c r="O170" t="s">
+        <v>281</v>
+      </c>
+      <c r="P170" t="s">
         <v>280</v>
-      </c>
-      <c r="P170" t="s">
-        <v>281</v>
       </c>
       <c r="Q170" t="s">
         <v>321</v>
@@ -10598,10 +10599,10 @@
         <v>486</v>
       </c>
       <c r="O171" t="s">
+        <v>281</v>
+      </c>
+      <c r="P171" t="s">
         <v>280</v>
-      </c>
-      <c r="P171" t="s">
-        <v>281</v>
       </c>
       <c r="Q171" t="s">
         <v>321</v>
@@ -10642,10 +10643,10 @@
         <v>486</v>
       </c>
       <c r="O172" t="s">
+        <v>281</v>
+      </c>
+      <c r="P172" t="s">
         <v>280</v>
-      </c>
-      <c r="P172" t="s">
-        <v>281</v>
       </c>
       <c r="Q172" t="s">
         <v>321</v>
@@ -10686,10 +10687,10 @@
         <v>486</v>
       </c>
       <c r="O173" t="s">
+        <v>281</v>
+      </c>
+      <c r="P173" t="s">
         <v>280</v>
-      </c>
-      <c r="P173" t="s">
-        <v>281</v>
       </c>
       <c r="Q173" t="s">
         <v>321</v>
@@ -10730,10 +10731,10 @@
         <v>486</v>
       </c>
       <c r="O174" t="s">
+        <v>281</v>
+      </c>
+      <c r="P174" t="s">
         <v>280</v>
-      </c>
-      <c r="P174" t="s">
-        <v>281</v>
       </c>
       <c r="Q174" t="s">
         <v>321</v>
@@ -10774,10 +10775,10 @@
         <v>486</v>
       </c>
       <c r="O175" t="s">
+        <v>281</v>
+      </c>
+      <c r="P175" t="s">
         <v>280</v>
-      </c>
-      <c r="P175" t="s">
-        <v>281</v>
       </c>
       <c r="Q175" t="s">
         <v>321</v>
@@ -10818,10 +10819,10 @@
         <v>486</v>
       </c>
       <c r="O176" t="s">
+        <v>281</v>
+      </c>
+      <c r="P176" t="s">
         <v>280</v>
-      </c>
-      <c r="P176" t="s">
-        <v>281</v>
       </c>
       <c r="Q176" t="s">
         <v>321</v>
@@ -10862,10 +10863,10 @@
         <v>486</v>
       </c>
       <c r="O177" t="s">
+        <v>281</v>
+      </c>
+      <c r="P177" t="s">
         <v>280</v>
-      </c>
-      <c r="P177" t="s">
-        <v>281</v>
       </c>
       <c r="Q177" t="s">
         <v>321</v>
@@ -10906,10 +10907,10 @@
         <v>486</v>
       </c>
       <c r="O178" t="s">
+        <v>281</v>
+      </c>
+      <c r="P178" t="s">
         <v>280</v>
-      </c>
-      <c r="P178" t="s">
-        <v>281</v>
       </c>
       <c r="Q178" t="s">
         <v>321</v>
@@ -10950,10 +10951,10 @@
         <v>486</v>
       </c>
       <c r="O179" t="s">
+        <v>281</v>
+      </c>
+      <c r="P179" t="s">
         <v>280</v>
-      </c>
-      <c r="P179" t="s">
-        <v>281</v>
       </c>
       <c r="Q179" t="s">
         <v>321</v>
@@ -10994,10 +10995,10 @@
         <v>486</v>
       </c>
       <c r="O180" t="s">
+        <v>281</v>
+      </c>
+      <c r="P180" t="s">
         <v>280</v>
-      </c>
-      <c r="P180" t="s">
-        <v>281</v>
       </c>
       <c r="Q180" t="s">
         <v>321</v>
@@ -11038,10 +11039,10 @@
         <v>486</v>
       </c>
       <c r="O181" t="s">
+        <v>281</v>
+      </c>
+      <c r="P181" t="s">
         <v>280</v>
-      </c>
-      <c r="P181" t="s">
-        <v>281</v>
       </c>
       <c r="Q181" t="s">
         <v>321</v>
@@ -11082,10 +11083,10 @@
         <v>486</v>
       </c>
       <c r="O182" t="s">
+        <v>281</v>
+      </c>
+      <c r="P182" t="s">
         <v>280</v>
-      </c>
-      <c r="P182" t="s">
-        <v>281</v>
       </c>
       <c r="Q182" t="s">
         <v>321</v>
@@ -11126,10 +11127,10 @@
         <v>486</v>
       </c>
       <c r="O183" t="s">
+        <v>281</v>
+      </c>
+      <c r="P183" t="s">
         <v>280</v>
-      </c>
-      <c r="P183" t="s">
-        <v>281</v>
       </c>
       <c r="Q183" t="s">
         <v>321</v>
@@ -13391,8 +13392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="507">
   <si>
     <t>date_sequenced</t>
   </si>
@@ -1525,6 +1525,27 @@
   </si>
   <si>
     <t>5,[sal1,atc,cin]</t>
+  </si>
+  <si>
+    <t>GCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCG</t>
+  </si>
+  <si>
+    <t>i57_chunk</t>
+  </si>
+  <si>
+    <t>u21attb</t>
+  </si>
+  <si>
+    <t>u22attb</t>
+  </si>
+  <si>
+    <t>TCCGTCTACGAACTCCCAGCAGGTAGGTATGATCCTGACGACGGAGCACGCCGTCGTCGACAAGCC</t>
+  </si>
+  <si>
+    <t>GCTTGGATTCTGCGTTTGTTAGGTATGATCCTGACGACGGAGCACGCCGTCGTCGACAAGCC</t>
+  </si>
+  <si>
+    <t>[genomechunk,i57_chunk]</t>
   </si>
 </sst>
 </file>
@@ -2677,8 +2698,8 @@
   <dimension ref="A1:R183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P155" sqref="P155"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W129" sqref="W129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,7 +2990,7 @@
         <v>43412</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O10" t="s">
         <v>277</v>
@@ -3022,7 +3043,7 @@
         <v>43412</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O11" t="s">
         <v>277</v>
@@ -3075,7 +3096,7 @@
         <v>43412</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O12" t="s">
         <v>277</v>
@@ -3128,7 +3149,7 @@
         <v>43412</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O13" t="s">
         <v>277</v>
@@ -3181,7 +3202,7 @@
         <v>43412</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O14" t="s">
         <v>277</v>
@@ -3234,7 +3255,7 @@
         <v>43412</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O15" t="s">
         <v>277</v>
@@ -3287,7 +3308,7 @@
         <v>43412</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O16" t="s">
         <v>277</v>
@@ -3340,7 +3361,7 @@
         <v>43412</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O17" t="s">
         <v>277</v>
@@ -3393,7 +3414,7 @@
         <v>43412</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O18" t="s">
         <v>277</v>
@@ -3446,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O19" t="s">
         <v>277</v>
@@ -3499,7 +3520,7 @@
         <v>43418</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O20" t="s">
         <v>277</v>
@@ -3552,7 +3573,7 @@
         <v>43418</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O21" t="s">
         <v>277</v>
@@ -3605,7 +3626,7 @@
         <v>43418</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O22" t="s">
         <v>277</v>
@@ -3658,7 +3679,7 @@
         <v>43418</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O23" t="s">
         <v>277</v>
@@ -3711,7 +3732,7 @@
         <v>43418</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O24" t="s">
         <v>277</v>
@@ -3764,7 +3785,7 @@
         <v>43418</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O25" t="s">
         <v>277</v>
@@ -3817,7 +3838,7 @@
         <v>43418</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O26" t="s">
         <v>277</v>
@@ -3870,7 +3891,7 @@
         <v>43418</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O27" t="s">
         <v>277</v>
@@ -3923,7 +3944,7 @@
         <v>43418</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O28" t="s">
         <v>277</v>
@@ -3976,7 +3997,7 @@
         <v>43418</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O29" t="s">
         <v>277</v>
@@ -4023,7 +4044,7 @@
         <v>43479</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O30" t="s">
         <v>277</v>
@@ -4070,7 +4091,7 @@
         <v>43479</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O31" t="s">
         <v>277</v>
@@ -4117,7 +4138,7 @@
         <v>43479</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O32" t="s">
         <v>277</v>
@@ -4164,7 +4185,7 @@
         <v>43479</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O33" t="s">
         <v>277</v>
@@ -4211,7 +4232,7 @@
         <v>43479</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O34" t="s">
         <v>277</v>
@@ -4258,7 +4279,7 @@
         <v>43479</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O35" t="s">
         <v>277</v>
@@ -4305,7 +4326,7 @@
         <v>43479</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O36" t="s">
         <v>277</v>
@@ -4352,7 +4373,7 @@
         <v>43479</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O37" t="s">
         <v>277</v>
@@ -4399,7 +4420,7 @@
         <v>43479</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O38" t="s">
         <v>277</v>
@@ -4446,7 +4467,7 @@
         <v>43479</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O39" t="s">
         <v>277</v>
@@ -4493,7 +4514,7 @@
         <v>43479</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O40" t="s">
         <v>277</v>
@@ -4540,7 +4561,7 @@
         <v>43479</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O41" t="s">
         <v>277</v>
@@ -4590,7 +4611,7 @@
         <v>43496</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O42" t="s">
         <v>277</v>
@@ -4640,7 +4661,7 @@
         <v>43496</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O43" t="s">
         <v>277</v>
@@ -4690,7 +4711,7 @@
         <v>43496</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O44" t="s">
         <v>277</v>
@@ -4740,7 +4761,7 @@
         <v>43496</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O45" t="s">
         <v>277</v>
@@ -4790,7 +4811,7 @@
         <v>43496</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O46" t="s">
         <v>277</v>
@@ -4840,7 +4861,7 @@
         <v>43496</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O47" t="s">
         <v>277</v>
@@ -4890,7 +4911,7 @@
         <v>43496</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O48" t="s">
         <v>277</v>
@@ -4940,7 +4961,7 @@
         <v>43496</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O49" t="s">
         <v>277</v>
@@ -4990,7 +5011,7 @@
         <v>43496</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O50" t="s">
         <v>277</v>
@@ -5040,7 +5061,7 @@
         <v>43496</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O51" t="s">
         <v>277</v>
@@ -5090,7 +5111,7 @@
         <v>43496</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O52" t="s">
         <v>277</v>
@@ -5140,7 +5161,7 @@
         <v>43496</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O53" t="s">
         <v>277</v>
@@ -5190,7 +5211,7 @@
         <v>43496</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O54" t="s">
         <v>277</v>
@@ -5240,7 +5261,7 @@
         <v>43496</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O55" t="s">
         <v>277</v>
@@ -5290,7 +5311,7 @@
         <v>43496</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O56" t="s">
         <v>277</v>
@@ -5340,7 +5361,7 @@
         <v>43515</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O57" t="s">
         <v>277</v>
@@ -5349,7 +5370,7 @@
         <v>276</v>
       </c>
       <c r="Q57" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -5390,7 +5411,7 @@
         <v>43515</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O58" t="s">
         <v>277</v>
@@ -5399,7 +5420,7 @@
         <v>276</v>
       </c>
       <c r="Q58" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -5440,7 +5461,7 @@
         <v>43515</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O59" t="s">
         <v>277</v>
@@ -5449,7 +5470,7 @@
         <v>276</v>
       </c>
       <c r="Q59" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -5490,7 +5511,7 @@
         <v>43515</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O60" t="s">
         <v>277</v>
@@ -5499,7 +5520,7 @@
         <v>276</v>
       </c>
       <c r="Q60" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -5540,7 +5561,7 @@
         <v>43515</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O61" t="s">
         <v>277</v>
@@ -5549,7 +5570,7 @@
         <v>276</v>
       </c>
       <c r="Q61" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -5590,7 +5611,7 @@
         <v>43515</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O62" t="s">
         <v>277</v>
@@ -5599,7 +5620,7 @@
         <v>276</v>
       </c>
       <c r="Q62" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -5640,7 +5661,7 @@
         <v>43515</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O63" t="s">
         <v>277</v>
@@ -5649,7 +5670,7 @@
         <v>276</v>
       </c>
       <c r="Q63" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -5690,7 +5711,7 @@
         <v>43515</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O64" t="s">
         <v>277</v>
@@ -5699,7 +5720,7 @@
         <v>276</v>
       </c>
       <c r="Q64" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -5740,7 +5761,7 @@
         <v>43515</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O65" t="s">
         <v>277</v>
@@ -5749,7 +5770,7 @@
         <v>276</v>
       </c>
       <c r="Q65" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -5793,7 +5814,7 @@
         <v>43523</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O66" t="s">
         <v>277</v>
@@ -5846,7 +5867,7 @@
         <v>43523</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O67" t="s">
         <v>277</v>
@@ -5899,7 +5920,7 @@
         <v>43523</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O68" t="s">
         <v>277</v>
@@ -5952,7 +5973,7 @@
         <v>43523</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O69" t="s">
         <v>277</v>
@@ -6005,7 +6026,7 @@
         <v>43523</v>
       </c>
       <c r="N70" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O70" t="s">
         <v>277</v>
@@ -6058,7 +6079,7 @@
         <v>43523</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O71" t="s">
         <v>277</v>
@@ -6111,7 +6132,7 @@
         <v>43523</v>
       </c>
       <c r="N72" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O72" t="s">
         <v>277</v>
@@ -6164,7 +6185,7 @@
         <v>43523</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O73" t="s">
         <v>277</v>
@@ -6217,7 +6238,7 @@
         <v>43523</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O74" t="s">
         <v>277</v>
@@ -6270,7 +6291,7 @@
         <v>43531</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O75" t="s">
         <v>277</v>
@@ -6279,7 +6300,7 @@
         <v>276</v>
       </c>
       <c r="Q75" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -6323,7 +6344,7 @@
         <v>43531</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O76" t="s">
         <v>277</v>
@@ -6332,7 +6353,7 @@
         <v>276</v>
       </c>
       <c r="Q76" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -6376,7 +6397,7 @@
         <v>43531</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O77" t="s">
         <v>277</v>
@@ -6385,7 +6406,7 @@
         <v>276</v>
       </c>
       <c r="Q77" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -6429,7 +6450,7 @@
         <v>43531</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O78" t="s">
         <v>277</v>
@@ -6438,7 +6459,7 @@
         <v>276</v>
       </c>
       <c r="Q78" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -6482,7 +6503,7 @@
         <v>43531</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O79" t="s">
         <v>277</v>
@@ -6491,7 +6512,7 @@
         <v>276</v>
       </c>
       <c r="Q79" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -6535,7 +6556,7 @@
         <v>43531</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O80" t="s">
         <v>277</v>
@@ -6544,7 +6565,7 @@
         <v>276</v>
       </c>
       <c r="Q80" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -6588,7 +6609,7 @@
         <v>43531</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O81" t="s">
         <v>277</v>
@@ -6597,7 +6618,7 @@
         <v>276</v>
       </c>
       <c r="Q81" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -6641,7 +6662,7 @@
         <v>43531</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O82" t="s">
         <v>277</v>
@@ -6650,7 +6671,7 @@
         <v>276</v>
       </c>
       <c r="Q82" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -6694,7 +6715,7 @@
         <v>43531</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O83" t="s">
         <v>277</v>
@@ -6703,7 +6724,7 @@
         <v>276</v>
       </c>
       <c r="Q83" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -6747,7 +6768,7 @@
         <v>43531</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O84" t="s">
         <v>277</v>
@@ -6756,7 +6777,7 @@
         <v>276</v>
       </c>
       <c r="Q84" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -6800,7 +6821,7 @@
         <v>43531</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O85" t="s">
         <v>277</v>
@@ -6809,7 +6830,7 @@
         <v>276</v>
       </c>
       <c r="Q85" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -6853,7 +6874,7 @@
         <v>43531</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O86" t="s">
         <v>277</v>
@@ -6862,7 +6883,7 @@
         <v>276</v>
       </c>
       <c r="Q86" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -6906,7 +6927,7 @@
         <v>43531</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O87" t="s">
         <v>277</v>
@@ -6915,7 +6936,7 @@
         <v>276</v>
       </c>
       <c r="Q87" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -6959,7 +6980,7 @@
         <v>43531</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O88" t="s">
         <v>277</v>
@@ -6968,7 +6989,7 @@
         <v>276</v>
       </c>
       <c r="Q88" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -7012,7 +7033,7 @@
         <v>43531</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O89" t="s">
         <v>277</v>
@@ -7021,7 +7042,7 @@
         <v>276</v>
       </c>
       <c r="Q89" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -7056,7 +7077,7 @@
         <v>333</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O90" t="s">
         <v>277</v>
@@ -7065,7 +7086,7 @@
         <v>276</v>
       </c>
       <c r="Q90" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -7100,7 +7121,7 @@
         <v>335</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O91" t="s">
         <v>277</v>
@@ -7109,7 +7130,7 @@
         <v>276</v>
       </c>
       <c r="Q91" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -7144,7 +7165,7 @@
         <v>336</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O92" t="s">
         <v>277</v>
@@ -7153,7 +7174,7 @@
         <v>276</v>
       </c>
       <c r="Q92" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -7188,7 +7209,7 @@
         <v>338</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O93" t="s">
         <v>277</v>
@@ -7197,7 +7218,7 @@
         <v>276</v>
       </c>
       <c r="Q93" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -7232,7 +7253,7 @@
         <v>340</v>
       </c>
       <c r="N94" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O94" t="s">
         <v>277</v>
@@ -7241,7 +7262,7 @@
         <v>276</v>
       </c>
       <c r="Q94" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -7276,7 +7297,7 @@
         <v>342</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O95" t="s">
         <v>277</v>
@@ -7285,7 +7306,7 @@
         <v>276</v>
       </c>
       <c r="Q95" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -7320,7 +7341,7 @@
         <v>344</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O96" t="s">
         <v>277</v>
@@ -7329,7 +7350,7 @@
         <v>276</v>
       </c>
       <c r="Q96" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -7364,7 +7385,7 @@
         <v>346</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O97" t="s">
         <v>277</v>
@@ -7373,7 +7394,7 @@
         <v>276</v>
       </c>
       <c r="Q97" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -7408,7 +7429,7 @@
         <v>348</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O98" t="s">
         <v>277</v>
@@ -7417,7 +7438,7 @@
         <v>276</v>
       </c>
       <c r="Q98" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -7452,7 +7473,7 @@
         <v>350</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O99" t="s">
         <v>277</v>
@@ -7461,7 +7482,7 @@
         <v>276</v>
       </c>
       <c r="Q99" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -7496,7 +7517,7 @@
         <v>352</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O100" t="s">
         <v>277</v>
@@ -7505,7 +7526,7 @@
         <v>276</v>
       </c>
       <c r="Q100" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -7540,7 +7561,7 @@
         <v>354</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O101" t="s">
         <v>277</v>
@@ -7549,7 +7570,7 @@
         <v>276</v>
       </c>
       <c r="Q101" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -7584,7 +7605,7 @@
         <v>356</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O102" t="s">
         <v>277</v>
@@ -7593,7 +7614,7 @@
         <v>276</v>
       </c>
       <c r="Q102" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -7628,7 +7649,7 @@
         <v>357</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O103" t="s">
         <v>277</v>
@@ -7637,7 +7658,7 @@
         <v>276</v>
       </c>
       <c r="Q103" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
@@ -7672,7 +7693,7 @@
         <v>358</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O104" t="s">
         <v>277</v>
@@ -7681,7 +7702,7 @@
         <v>276</v>
       </c>
       <c r="Q104" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -7716,7 +7737,7 @@
         <v>359</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O105" t="s">
         <v>277</v>
@@ -7725,7 +7746,7 @@
         <v>276</v>
       </c>
       <c r="Q105" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
@@ -7760,7 +7781,7 @@
         <v>361</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O106" t="s">
         <v>277</v>
@@ -7769,7 +7790,7 @@
         <v>276</v>
       </c>
       <c r="Q106" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -7804,7 +7825,7 @@
         <v>363</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O107" t="s">
         <v>277</v>
@@ -7813,7 +7834,7 @@
         <v>276</v>
       </c>
       <c r="Q107" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -7848,7 +7869,7 @@
         <v>365</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O108" t="s">
         <v>277</v>
@@ -7857,7 +7878,7 @@
         <v>276</v>
       </c>
       <c r="Q108" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
@@ -7892,7 +7913,7 @@
         <v>367</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O109" t="s">
         <v>277</v>
@@ -7901,7 +7922,7 @@
         <v>276</v>
       </c>
       <c r="Q109" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
@@ -7936,7 +7957,7 @@
         <v>369</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O110" t="s">
         <v>277</v>
@@ -7945,7 +7966,7 @@
         <v>276</v>
       </c>
       <c r="Q110" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -7980,7 +8001,7 @@
         <v>371</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O111" t="s">
         <v>277</v>
@@ -7989,7 +8010,7 @@
         <v>276</v>
       </c>
       <c r="Q111" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -8024,7 +8045,7 @@
         <v>373</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O112" t="s">
         <v>277</v>
@@ -8033,7 +8054,7 @@
         <v>276</v>
       </c>
       <c r="Q112" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -8068,7 +8089,7 @@
         <v>375</v>
       </c>
       <c r="N113" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O113" t="s">
         <v>277</v>
@@ -8077,7 +8098,7 @@
         <v>276</v>
       </c>
       <c r="Q113" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -8112,7 +8133,7 @@
         <v>377</v>
       </c>
       <c r="N114" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O114" t="s">
         <v>277</v>
@@ -8121,7 +8142,7 @@
         <v>276</v>
       </c>
       <c r="Q114" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
@@ -8156,7 +8177,7 @@
         <v>379</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O115" t="s">
         <v>277</v>
@@ -8165,7 +8186,7 @@
         <v>276</v>
       </c>
       <c r="Q115" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -8203,7 +8224,7 @@
         <v>389</v>
       </c>
       <c r="N116" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O116" t="s">
         <v>281</v>
@@ -8212,7 +8233,7 @@
         <v>280</v>
       </c>
       <c r="Q116" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -8250,7 +8271,7 @@
         <v>391</v>
       </c>
       <c r="N117" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O117" t="s">
         <v>281</v>
@@ -8259,7 +8280,7 @@
         <v>280</v>
       </c>
       <c r="Q117" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -8297,7 +8318,7 @@
         <v>393</v>
       </c>
       <c r="N118" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O118" t="s">
         <v>281</v>
@@ -8306,7 +8327,7 @@
         <v>280</v>
       </c>
       <c r="Q118" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
@@ -8344,7 +8365,7 @@
         <v>389</v>
       </c>
       <c r="N119" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O119" t="s">
         <v>281</v>
@@ -8353,7 +8374,7 @@
         <v>280</v>
       </c>
       <c r="Q119" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -8391,7 +8412,7 @@
         <v>391</v>
       </c>
       <c r="N120" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O120" t="s">
         <v>281</v>
@@ -8400,7 +8421,7 @@
         <v>280</v>
       </c>
       <c r="Q120" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -8438,7 +8459,7 @@
         <v>393</v>
       </c>
       <c r="N121" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O121" t="s">
         <v>281</v>
@@ -8447,7 +8468,7 @@
         <v>280</v>
       </c>
       <c r="Q121" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -8485,7 +8506,7 @@
         <v>396</v>
       </c>
       <c r="N122" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O122" t="s">
         <v>281</v>
@@ -8494,7 +8515,7 @@
         <v>280</v>
       </c>
       <c r="Q122" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -8532,7 +8553,7 @@
         <v>399</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O123" t="s">
         <v>281</v>
@@ -8541,7 +8562,7 @@
         <v>280</v>
       </c>
       <c r="Q123" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
@@ -8579,7 +8600,7 @@
         <v>402</v>
       </c>
       <c r="N124" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O124" t="s">
         <v>281</v>
@@ -8588,7 +8609,7 @@
         <v>280</v>
       </c>
       <c r="Q124" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
@@ -8626,7 +8647,7 @@
         <v>396</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O125" t="s">
         <v>281</v>
@@ -8635,7 +8656,7 @@
         <v>280</v>
       </c>
       <c r="Q125" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
@@ -8673,7 +8694,7 @@
         <v>399</v>
       </c>
       <c r="N126" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O126" t="s">
         <v>281</v>
@@ -8682,7 +8703,7 @@
         <v>280</v>
       </c>
       <c r="Q126" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
@@ -8720,7 +8741,7 @@
         <v>402</v>
       </c>
       <c r="N127" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O127" t="s">
         <v>281</v>
@@ -8729,7 +8750,7 @@
         <v>280</v>
       </c>
       <c r="Q127" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
@@ -8761,13 +8782,13 @@
         <v>433</v>
       </c>
       <c r="N128" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O128" t="s">
         <v>281</v>
       </c>
       <c r="Q128" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -8799,13 +8820,13 @@
         <v>434</v>
       </c>
       <c r="N129" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O129" t="s">
         <v>280</v>
       </c>
       <c r="Q129" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -8840,7 +8861,7 @@
         <v>435</v>
       </c>
       <c r="N130" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O130" t="s">
         <v>281</v>
@@ -8849,7 +8870,7 @@
         <v>280</v>
       </c>
       <c r="Q130" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -8881,13 +8902,13 @@
         <v>437</v>
       </c>
       <c r="N131" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O131" t="s">
         <v>281</v>
       </c>
       <c r="Q131" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -8919,13 +8940,13 @@
         <v>439</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O132" t="s">
         <v>280</v>
       </c>
       <c r="Q132" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -8960,7 +8981,7 @@
         <v>441</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O133" t="s">
         <v>281</v>
@@ -8969,7 +8990,7 @@
         <v>280</v>
       </c>
       <c r="Q133" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -9001,13 +9022,13 @@
         <v>443</v>
       </c>
       <c r="N134" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O134" t="s">
         <v>281</v>
       </c>
       <c r="Q134" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -9039,13 +9060,13 @@
         <v>445</v>
       </c>
       <c r="N135" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O135" t="s">
         <v>280</v>
       </c>
       <c r="Q135" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -9080,7 +9101,7 @@
         <v>447</v>
       </c>
       <c r="N136" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O136" t="s">
         <v>281</v>
@@ -9089,7 +9110,7 @@
         <v>280</v>
       </c>
       <c r="Q136" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -9121,13 +9142,13 @@
         <v>449</v>
       </c>
       <c r="N137" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O137" t="s">
         <v>281</v>
       </c>
       <c r="Q137" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -9159,13 +9180,13 @@
         <v>451</v>
       </c>
       <c r="N138" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O138" t="s">
         <v>280</v>
       </c>
       <c r="Q138" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -9200,7 +9221,7 @@
         <v>453</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O139" t="s">
         <v>281</v>
@@ -9209,7 +9230,7 @@
         <v>280</v>
       </c>
       <c r="Q139" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -9241,7 +9262,7 @@
         <v>459</v>
       </c>
       <c r="N140" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O140" t="s">
         <v>281</v>
@@ -9282,7 +9303,7 @@
         <v>459</v>
       </c>
       <c r="N141" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O141" t="s">
         <v>280</v>
@@ -9326,7 +9347,7 @@
         <v>459</v>
       </c>
       <c r="N142" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O142" t="s">
         <v>281</v>
@@ -9370,7 +9391,7 @@
         <v>461</v>
       </c>
       <c r="N143" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O143" t="s">
         <v>281</v>
@@ -9411,7 +9432,7 @@
         <v>461</v>
       </c>
       <c r="N144" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O144" t="s">
         <v>280</v>
@@ -9455,7 +9476,7 @@
         <v>461</v>
       </c>
       <c r="N145" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O145" t="s">
         <v>281</v>
@@ -9499,7 +9520,7 @@
         <v>464</v>
       </c>
       <c r="N146" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O146" t="s">
         <v>281</v>
@@ -9540,7 +9561,7 @@
         <v>464</v>
       </c>
       <c r="N147" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O147" t="s">
         <v>280</v>
@@ -9584,7 +9605,7 @@
         <v>464</v>
       </c>
       <c r="N148" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O148" t="s">
         <v>281</v>
@@ -9628,7 +9649,7 @@
         <v>465</v>
       </c>
       <c r="N149" s="18" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="O149" t="s">
         <v>281</v>
@@ -9669,7 +9690,7 @@
         <v>465</v>
       </c>
       <c r="N150" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O150" t="s">
         <v>280</v>
@@ -9713,7 +9734,7 @@
         <v>465</v>
       </c>
       <c r="N151" s="18" t="s">
-        <v>328</v>
+        <v>502</v>
       </c>
       <c r="O151" t="s">
         <v>281</v>
@@ -13390,10 +13411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13806,6 +13827,30 @@
       </c>
       <c r="B46" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>501</v>
+      </c>
+      <c r="B47" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>502</v>
+      </c>
+      <c r="B48" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>503</v>
+      </c>
+      <c r="B49" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="508">
   <si>
     <t>date_sequenced</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>[genomechunk,i57_chunk]</t>
+  </si>
+  <si>
+    <t>int_inducer</t>
   </si>
 </sst>
 </file>
@@ -2695,11 +2698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R183"/>
+  <dimension ref="A1:S183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W129" sqref="W129"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U180" sqref="U180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,7 +2712,7 @@
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2764,8 +2767,11 @@
       <c r="R1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>180201</v>
       </c>
@@ -2787,8 +2793,11 @@
       <c r="I2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>180201</v>
       </c>
@@ -2810,8 +2819,11 @@
       <c r="I3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>180201</v>
       </c>
@@ -2833,8 +2845,11 @@
       <c r="I4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>180201</v>
       </c>
@@ -2856,8 +2871,11 @@
       <c r="I5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>180201</v>
       </c>
@@ -2879,8 +2897,11 @@
       <c r="I6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>180201</v>
       </c>
@@ -2902,8 +2923,11 @@
       <c r="I7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>180201</v>
       </c>
@@ -2925,8 +2949,11 @@
       <c r="I8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>180201</v>
       </c>
@@ -2948,8 +2975,11 @@
       <c r="I9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>181113</v>
       </c>
@@ -3001,8 +3031,11 @@
       <c r="Q10" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>181113</v>
       </c>
@@ -3054,8 +3087,11 @@
       <c r="Q11" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>181113</v>
       </c>
@@ -3107,8 +3143,11 @@
       <c r="Q12" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>181113</v>
       </c>
@@ -3160,8 +3199,11 @@
       <c r="Q13" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>181113</v>
       </c>
@@ -3213,8 +3255,11 @@
       <c r="Q14" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>181113</v>
       </c>
@@ -3266,8 +3311,11 @@
       <c r="Q15" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>181113</v>
       </c>
@@ -3319,8 +3367,11 @@
       <c r="Q16" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>181113</v>
       </c>
@@ -3372,8 +3423,11 @@
       <c r="Q17" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>181113</v>
       </c>
@@ -3425,8 +3479,11 @@
       <c r="Q18" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>181113</v>
       </c>
@@ -3478,8 +3535,11 @@
       <c r="Q19" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>181203</v>
       </c>
@@ -3531,8 +3591,11 @@
       <c r="Q20" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>181203</v>
       </c>
@@ -3584,8 +3647,11 @@
       <c r="Q21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>181203</v>
       </c>
@@ -3637,8 +3703,11 @@
       <c r="Q22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>181203</v>
       </c>
@@ -3690,8 +3759,11 @@
       <c r="Q23" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>181203</v>
       </c>
@@ -3743,8 +3815,11 @@
       <c r="Q24" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>181203</v>
       </c>
@@ -3796,8 +3871,11 @@
       <c r="Q25" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>181203</v>
       </c>
@@ -3849,8 +3927,11 @@
       <c r="Q26" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>181203</v>
       </c>
@@ -3902,8 +3983,11 @@
       <c r="Q27" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>181203</v>
       </c>
@@ -3955,8 +4039,11 @@
       <c r="Q28" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>181203</v>
       </c>
@@ -4008,8 +4095,11 @@
       <c r="Q29" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>190118</v>
       </c>
@@ -4055,8 +4145,11 @@
       <c r="Q30" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>190118</v>
       </c>
@@ -4102,8 +4195,11 @@
       <c r="Q31" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>190118</v>
       </c>
@@ -4149,8 +4245,11 @@
       <c r="Q32" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>190118</v>
       </c>
@@ -4196,8 +4295,11 @@
       <c r="Q33" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>190118</v>
       </c>
@@ -4243,8 +4345,11 @@
       <c r="Q34" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>190118</v>
       </c>
@@ -4290,8 +4395,11 @@
       <c r="Q35" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>190118</v>
       </c>
@@ -4337,8 +4445,11 @@
       <c r="Q36" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>190118</v>
       </c>
@@ -4384,8 +4495,11 @@
       <c r="Q37" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>190118</v>
       </c>
@@ -4431,8 +4545,11 @@
       <c r="Q38" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>190118</v>
       </c>
@@ -4478,8 +4595,11 @@
       <c r="Q39" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>190118</v>
       </c>
@@ -4525,8 +4645,11 @@
       <c r="Q40" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>190118</v>
       </c>
@@ -4572,8 +4695,11 @@
       <c r="Q41" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>190207</v>
       </c>
@@ -4622,8 +4748,11 @@
       <c r="Q42" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>190207</v>
       </c>
@@ -4672,8 +4801,11 @@
       <c r="Q43" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>190207</v>
       </c>
@@ -4722,8 +4854,11 @@
       <c r="Q44" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>190207</v>
       </c>
@@ -4772,8 +4907,11 @@
       <c r="Q45" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>190207</v>
       </c>
@@ -4822,8 +4960,11 @@
       <c r="Q46" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>190207</v>
       </c>
@@ -4872,8 +5013,11 @@
       <c r="Q47" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>190207</v>
       </c>
@@ -4922,8 +5066,11 @@
       <c r="Q48" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>190207</v>
       </c>
@@ -4972,8 +5119,11 @@
       <c r="Q49" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>190207</v>
       </c>
@@ -5022,8 +5172,11 @@
       <c r="Q50" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>190207</v>
       </c>
@@ -5072,8 +5225,11 @@
       <c r="Q51" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>190207</v>
       </c>
@@ -5122,8 +5278,11 @@
       <c r="Q52" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>190207</v>
       </c>
@@ -5172,8 +5331,11 @@
       <c r="Q53" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>190207</v>
       </c>
@@ -5222,8 +5384,11 @@
       <c r="Q54" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>190207</v>
       </c>
@@ -5272,8 +5437,11 @@
       <c r="Q55" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>190207</v>
       </c>
@@ -5322,8 +5490,11 @@
       <c r="Q56" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>190220</v>
       </c>
@@ -5372,8 +5543,11 @@
       <c r="Q57" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>190220</v>
       </c>
@@ -5422,8 +5596,11 @@
       <c r="Q58" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>190220</v>
       </c>
@@ -5472,8 +5649,11 @@
       <c r="Q59" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>190220</v>
       </c>
@@ -5522,8 +5702,11 @@
       <c r="Q60" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>190220</v>
       </c>
@@ -5572,8 +5755,11 @@
       <c r="Q61" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>190220</v>
       </c>
@@ -5622,8 +5808,11 @@
       <c r="Q62" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>190220</v>
       </c>
@@ -5672,8 +5861,11 @@
       <c r="Q63" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>190220</v>
       </c>
@@ -5722,8 +5914,11 @@
       <c r="Q64" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>190220</v>
       </c>
@@ -5772,8 +5967,11 @@
       <c r="Q65" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>190228</v>
       </c>
@@ -5825,8 +6023,11 @@
       <c r="Q66" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>190228</v>
       </c>
@@ -5878,8 +6079,11 @@
       <c r="Q67" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>190228</v>
       </c>
@@ -5931,8 +6135,11 @@
       <c r="Q68" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>190228</v>
       </c>
@@ -5984,8 +6191,11 @@
       <c r="Q69" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>190228</v>
       </c>
@@ -6037,8 +6247,11 @@
       <c r="Q70" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>190228</v>
       </c>
@@ -6090,8 +6303,11 @@
       <c r="Q71" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>190228</v>
       </c>
@@ -6143,8 +6359,11 @@
       <c r="Q72" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>190228</v>
       </c>
@@ -6196,8 +6415,11 @@
       <c r="Q73" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>190228</v>
       </c>
@@ -6249,8 +6471,11 @@
       <c r="Q74" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>190308</v>
       </c>
@@ -6302,8 +6527,11 @@
       <c r="Q75" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>190308</v>
       </c>
@@ -6355,8 +6583,11 @@
       <c r="Q76" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>190308</v>
       </c>
@@ -6408,8 +6639,11 @@
       <c r="Q77" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>190308</v>
       </c>
@@ -6461,8 +6695,11 @@
       <c r="Q78" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>190308</v>
       </c>
@@ -6514,8 +6751,11 @@
       <c r="Q79" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>190308</v>
       </c>
@@ -6567,8 +6807,11 @@
       <c r="Q80" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>190308</v>
       </c>
@@ -6620,8 +6863,11 @@
       <c r="Q81" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>190308</v>
       </c>
@@ -6673,8 +6919,11 @@
       <c r="Q82" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>190308</v>
       </c>
@@ -6726,8 +6975,11 @@
       <c r="Q83" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>190308</v>
       </c>
@@ -6779,8 +7031,11 @@
       <c r="Q84" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>190308</v>
       </c>
@@ -6832,8 +7087,11 @@
       <c r="Q85" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>190308</v>
       </c>
@@ -6885,8 +7143,11 @@
       <c r="Q86" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>190308</v>
       </c>
@@ -6938,8 +7199,11 @@
       <c r="Q87" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>190308</v>
       </c>
@@ -6991,8 +7255,11 @@
       <c r="Q88" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>190308</v>
       </c>
@@ -7044,8 +7311,11 @@
       <c r="Q89" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>380</v>
       </c>
@@ -7088,8 +7358,11 @@
       <c r="Q90" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>380</v>
       </c>
@@ -7132,8 +7405,11 @@
       <c r="Q91" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>380</v>
       </c>
@@ -7176,8 +7452,11 @@
       <c r="Q92" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>380</v>
       </c>
@@ -7220,8 +7499,11 @@
       <c r="Q93" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>380</v>
       </c>
@@ -7264,8 +7546,11 @@
       <c r="Q94" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>380</v>
       </c>
@@ -7308,8 +7593,11 @@
       <c r="Q95" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>380</v>
       </c>
@@ -7352,8 +7640,11 @@
       <c r="Q96" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>380</v>
       </c>
@@ -7396,8 +7687,11 @@
       <c r="Q97" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>380</v>
       </c>
@@ -7440,8 +7734,11 @@
       <c r="Q98" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>380</v>
       </c>
@@ -7484,8 +7781,11 @@
       <c r="Q99" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>380</v>
       </c>
@@ -7528,8 +7828,11 @@
       <c r="Q100" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>380</v>
       </c>
@@ -7572,8 +7875,11 @@
       <c r="Q101" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>380</v>
       </c>
@@ -7616,8 +7922,11 @@
       <c r="Q102" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>381</v>
       </c>
@@ -7660,8 +7969,11 @@
       <c r="Q103" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>381</v>
       </c>
@@ -7704,8 +8016,11 @@
       <c r="Q104" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S104" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>381</v>
       </c>
@@ -7748,8 +8063,11 @@
       <c r="Q105" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>381</v>
       </c>
@@ -7792,8 +8110,11 @@
       <c r="Q106" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>381</v>
       </c>
@@ -7836,8 +8157,11 @@
       <c r="Q107" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>381</v>
       </c>
@@ -7880,8 +8204,11 @@
       <c r="Q108" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>381</v>
       </c>
@@ -7924,8 +8251,11 @@
       <c r="Q109" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S109" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>381</v>
       </c>
@@ -7968,8 +8298,11 @@
       <c r="Q110" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>381</v>
       </c>
@@ -8012,8 +8345,11 @@
       <c r="Q111" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>381</v>
       </c>
@@ -8056,8 +8392,11 @@
       <c r="Q112" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>381</v>
       </c>
@@ -8100,8 +8439,11 @@
       <c r="Q113" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>381</v>
       </c>
@@ -8144,8 +8486,11 @@
       <c r="Q114" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>381</v>
       </c>
@@ -8188,8 +8533,11 @@
       <c r="Q115" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>191011</v>
       </c>
@@ -8235,8 +8583,11 @@
       <c r="Q116" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>191011</v>
       </c>
@@ -8282,8 +8633,11 @@
       <c r="Q117" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>191011</v>
       </c>
@@ -8329,8 +8683,11 @@
       <c r="Q118" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>191011</v>
       </c>
@@ -8376,8 +8733,11 @@
       <c r="Q119" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>191011</v>
       </c>
@@ -8423,8 +8783,11 @@
       <c r="Q120" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>191011</v>
       </c>
@@ -8470,8 +8833,11 @@
       <c r="Q121" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>191011</v>
       </c>
@@ -8517,8 +8883,11 @@
       <c r="Q122" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S122" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>191011</v>
       </c>
@@ -8564,8 +8933,11 @@
       <c r="Q123" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>191011</v>
       </c>
@@ -8611,8 +8983,11 @@
       <c r="Q124" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="17">
         <v>191011</v>
       </c>
@@ -8658,8 +9033,11 @@
       <c r="Q125" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="17">
         <v>191011</v>
       </c>
@@ -8705,8 +9083,11 @@
       <c r="Q126" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>191011</v>
       </c>
@@ -8752,8 +9133,11 @@
       <c r="Q127" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>191114</v>
       </c>
@@ -8790,8 +9174,11 @@
       <c r="Q128" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>191114</v>
       </c>
@@ -8828,8 +9215,11 @@
       <c r="Q129" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>191114</v>
       </c>
@@ -8872,8 +9262,11 @@
       <c r="Q130" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
         <v>191114</v>
       </c>
@@ -8910,8 +9303,11 @@
       <c r="Q131" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
         <v>191114</v>
       </c>
@@ -8948,8 +9344,11 @@
       <c r="Q132" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="17">
         <v>191114</v>
       </c>
@@ -8992,8 +9391,11 @@
       <c r="Q133" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="17">
         <v>191114</v>
       </c>
@@ -9030,8 +9432,11 @@
       <c r="Q134" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>191114</v>
       </c>
@@ -9068,8 +9473,11 @@
       <c r="Q135" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>191114</v>
       </c>
@@ -9112,8 +9520,11 @@
       <c r="Q136" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>191114</v>
       </c>
@@ -9150,8 +9561,11 @@
       <c r="Q137" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
         <v>191114</v>
       </c>
@@ -9188,8 +9602,11 @@
       <c r="Q138" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>191114</v>
       </c>
@@ -9232,8 +9649,11 @@
       <c r="Q139" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>200131</v>
       </c>
@@ -9273,8 +9693,11 @@
       <c r="R140" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
         <v>200131</v>
       </c>
@@ -9314,8 +9737,11 @@
       <c r="R141" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
         <v>200131</v>
       </c>
@@ -9361,8 +9787,11 @@
       <c r="R142" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>200131</v>
       </c>
@@ -9402,8 +9831,11 @@
       <c r="R143" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>200131</v>
       </c>
@@ -9443,8 +9875,11 @@
       <c r="R144" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>200131</v>
       </c>
@@ -9490,8 +9925,11 @@
       <c r="R145" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>200131</v>
       </c>
@@ -9531,8 +9969,11 @@
       <c r="R146" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>200131</v>
       </c>
@@ -9572,8 +10013,11 @@
       <c r="R147" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
         <v>200131</v>
       </c>
@@ -9619,8 +10063,11 @@
       <c r="R148" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
         <v>200131</v>
       </c>
@@ -9660,8 +10107,11 @@
       <c r="R149" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>200131</v>
       </c>
@@ -9701,8 +10151,11 @@
       <c r="R150" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>200131</v>
       </c>
@@ -9748,8 +10201,11 @@
       <c r="R151" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>201125</v>
       </c>
@@ -9792,8 +10248,11 @@
       <c r="Q152" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>201125</v>
       </c>
@@ -9836,8 +10295,11 @@
       <c r="Q153" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>201125</v>
       </c>
@@ -9880,8 +10342,11 @@
       <c r="Q154" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>201125</v>
       </c>
@@ -9924,8 +10389,11 @@
       <c r="Q155" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>201125</v>
       </c>
@@ -9968,8 +10436,11 @@
       <c r="Q156" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>201125</v>
       </c>
@@ -10012,8 +10483,11 @@
       <c r="Q157" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
         <v>201125</v>
       </c>
@@ -10056,8 +10530,11 @@
       <c r="Q158" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S158" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
         <v>201125</v>
       </c>
@@ -10100,8 +10577,11 @@
       <c r="Q159" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
         <v>201125</v>
       </c>
@@ -10144,8 +10624,11 @@
       <c r="Q160" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S160" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
         <v>201125</v>
       </c>
@@ -10188,8 +10671,11 @@
       <c r="Q161" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S161" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
         <v>201125</v>
       </c>
@@ -10232,8 +10718,11 @@
       <c r="Q162" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S162" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>201125</v>
       </c>
@@ -10276,8 +10765,11 @@
       <c r="Q163" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S163" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
         <v>201212</v>
       </c>
@@ -10320,8 +10812,11 @@
       <c r="Q164" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S164" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
         <v>201212</v>
       </c>
@@ -10364,8 +10859,11 @@
       <c r="Q165" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
         <v>201212</v>
       </c>
@@ -10408,8 +10906,11 @@
       <c r="Q166" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S166" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
         <v>201212</v>
       </c>
@@ -10452,8 +10953,11 @@
       <c r="Q167" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S167" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
         <v>201212</v>
       </c>
@@ -10496,8 +11000,11 @@
       <c r="Q168" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S168" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="17">
         <v>201212</v>
       </c>
@@ -10540,8 +11047,11 @@
       <c r="Q169" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S169" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="17">
         <v>201212</v>
       </c>
@@ -10584,8 +11094,11 @@
       <c r="Q170" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S170" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="17">
         <v>201212</v>
       </c>
@@ -10628,8 +11141,11 @@
       <c r="Q171" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S171" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="17">
         <v>201212</v>
       </c>
@@ -10672,8 +11188,11 @@
       <c r="Q172" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S172" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="17">
         <v>201212</v>
       </c>
@@ -10716,8 +11235,11 @@
       <c r="Q173" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S173" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="17">
         <v>201212</v>
       </c>
@@ -10760,8 +11282,11 @@
       <c r="Q174" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S174" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
         <v>201212</v>
       </c>
@@ -10804,8 +11329,11 @@
       <c r="Q175" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S175" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="17">
         <v>201212</v>
       </c>
@@ -10848,8 +11376,11 @@
       <c r="Q176" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S176" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
         <v>201212</v>
       </c>
@@ -10892,8 +11423,11 @@
       <c r="Q177" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S177" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="17">
         <v>201212</v>
       </c>
@@ -10936,8 +11470,11 @@
       <c r="Q178" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S178" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="17">
         <v>201212</v>
       </c>
@@ -10980,8 +11517,11 @@
       <c r="Q179" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S179" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
         <v>201212</v>
       </c>
@@ -11024,8 +11564,11 @@
       <c r="Q180" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S180" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
         <v>201212</v>
       </c>
@@ -11068,8 +11611,11 @@
       <c r="Q181" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S181" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="17">
         <v>201212</v>
       </c>
@@ -11112,8 +11658,11 @@
       <c r="Q182" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S182" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="17">
         <v>201212</v>
       </c>
@@ -11155,6 +11704,9 @@
       </c>
       <c r="Q183" t="s">
         <v>321</v>
+      </c>
+      <c r="S183" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -13414,7 +13966,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alldata" sheetId="1" r:id="rId1"/>
@@ -2700,9 +2700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U180" sqref="U180"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13266,10 +13266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13278,7 +13278,7 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>150.14166666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1.9994000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -13594,12 +13594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -13613,37 +13613,40 @@
         <v>181113</v>
       </c>
       <c r="E14">
+        <v>181203</v>
+      </c>
+      <c r="F14">
         <v>190118</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>190207</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>190228</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>190308</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>190417</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>191011</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>191114</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>200131</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>201125</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>201212</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -13658,37 +13661,40 @@
         <v>90</v>
       </c>
       <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="F15">
         <v>300</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
       </c>
       <c r="G15">
         <v>15</v>
       </c>
       <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
         <v>150</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>30</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>300</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>286</v>
-      </c>
-      <c r="L15">
-        <v>300</v>
       </c>
       <c r="M15">
         <v>300</v>
       </c>
       <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -13702,17 +13708,20 @@
         <f>C2</f>
         <v>300</v>
       </c>
-      <c r="F16">
+      <c r="E16">
+        <v>150</v>
+      </c>
+      <c r="G16">
         <v>45</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>300</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -13722,36 +13731,36 @@
       <c r="C17">
         <v>200</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>120</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>300</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>331</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -13763,16 +13772,16 @@
         <v>0.2</v>
       </c>
       <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
         <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6</v>
       </c>
       <c r="G20">
         <v>0.6</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -13792,8 +13801,11 @@
       <c r="N20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -13834,8 +13846,11 @@
       <c r="N21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -13843,7 +13858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -13851,7 +13866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13862,23 +13877,23 @@
         <f>0.3*C6</f>
         <v>30</v>
       </c>
-      <c r="F24">
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="G24">
         <v>5</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>15</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>100</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>5</v>
-      </c>
-      <c r="K24">
-        <v>100</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -13887,10 +13902,13 @@
         <v>100</v>
       </c>
       <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -13901,58 +13919,61 @@
         <f>C6</f>
         <v>100</v>
       </c>
-      <c r="F25">
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="G25">
         <v>15</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>100</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>30</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>20</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>40</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>50</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>100</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>330</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>100</v>
       </c>
     </row>

--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="alldata" sheetId="1" r:id="rId1"/>
@@ -567,27 +567,18 @@
     <t>6,[atc3,ara,sal1]</t>
   </si>
   <si>
-    <t>42[,atc3,cin,sal1]</t>
-  </si>
-  <si>
     <t>6,[atc3,sal2]</t>
   </si>
   <si>
     <t>6,[atc3,ara,sal2]</t>
   </si>
   <si>
-    <t>42[,atc3,cin,sal2]</t>
-  </si>
-  <si>
     <t>6,[atc3,sal3]</t>
   </si>
   <si>
     <t>6,[atc3,ara,sal3]</t>
   </si>
   <si>
-    <t>42[,atc3,cin,sal3]</t>
-  </si>
-  <si>
     <t>6,[atc3,cin,sal1]</t>
   </si>
   <si>
@@ -1549,6 +1540,15 @@
   </si>
   <si>
     <t>int_inducer</t>
+  </si>
+  <si>
+    <t>42,[atc3,cin,sal1]</t>
+  </si>
+  <si>
+    <t>42,[atc3,cin,sal2]</t>
+  </si>
+  <si>
+    <t>42,[atc3,cin,sal3]</t>
   </si>
 </sst>
 </file>
@@ -2700,9 +2700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:S29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,22 +2753,22 @@
         <v>42</v>
       </c>
       <c r="N1" t="s">
+        <v>320</v>
+      </c>
+      <c r="O1" t="s">
         <v>323</v>
       </c>
-      <c r="O1" t="s">
-        <v>326</v>
-      </c>
       <c r="P1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="R1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
@@ -3020,16 +3020,16 @@
         <v>43412</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S10" t="s">
         <v>46</v>
@@ -3058,7 +3058,7 @@
         <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
         <v>79</v>
@@ -3076,16 +3076,16 @@
         <v>43412</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S11" t="s">
         <v>57</v>
@@ -3102,7 +3102,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -3114,7 +3114,7 @@
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I12" t="s">
         <v>79</v>
@@ -3132,16 +3132,16 @@
         <v>43412</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S12" t="s">
         <v>57</v>
@@ -3170,7 +3170,7 @@
         <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
         <v>102</v>
@@ -3188,16 +3188,16 @@
         <v>43412</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S13" t="s">
         <v>46</v>
@@ -3226,7 +3226,7 @@
         <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
         <v>106</v>
@@ -3244,16 +3244,16 @@
         <v>43412</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S14" t="s">
         <v>57</v>
@@ -3300,16 +3300,16 @@
         <v>43412</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S15" t="s">
         <v>46</v>
@@ -3356,16 +3356,16 @@
         <v>43412</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S16" t="s">
         <v>57</v>
@@ -3382,7 +3382,7 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -3412,16 +3412,16 @@
         <v>43412</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S17" t="s">
         <v>57</v>
@@ -3468,16 +3468,16 @@
         <v>43412</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S18" t="s">
         <v>46</v>
@@ -3524,16 +3524,16 @@
         <v>43412</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S19" t="s">
         <v>57</v>
@@ -3580,16 +3580,16 @@
         <v>43418</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S20" t="s">
         <v>46</v>
@@ -3636,16 +3636,16 @@
         <v>43418</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S21" t="s">
         <v>46</v>
@@ -3692,16 +3692,16 @@
         <v>43418</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S22" t="s">
         <v>46</v>
@@ -3748,16 +3748,16 @@
         <v>43418</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S23" t="s">
         <v>46</v>
@@ -3804,16 +3804,16 @@
         <v>43418</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S24" t="s">
         <v>46</v>
@@ -3860,16 +3860,16 @@
         <v>43418</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S25" t="s">
         <v>57</v>
@@ -3916,16 +3916,16 @@
         <v>43418</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S26" t="s">
         <v>57</v>
@@ -3972,16 +3972,16 @@
         <v>43418</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S27" t="s">
         <v>57</v>
@@ -4028,16 +4028,16 @@
         <v>43418</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S28" t="s">
         <v>57</v>
@@ -4084,16 +4084,16 @@
         <v>43418</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S29" t="s">
         <v>57</v>
@@ -4134,16 +4134,16 @@
         <v>43479</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S30" t="s">
         <v>57</v>
@@ -4184,16 +4184,16 @@
         <v>43479</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S31" t="s">
         <v>57</v>
@@ -4234,16 +4234,16 @@
         <v>43479</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S32" t="s">
         <v>57</v>
@@ -4284,16 +4284,16 @@
         <v>43479</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O33" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S33" t="s">
         <v>57</v>
@@ -4334,16 +4334,16 @@
         <v>43479</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S34" t="s">
         <v>57</v>
@@ -4384,16 +4384,16 @@
         <v>43479</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S35" t="s">
         <v>57</v>
@@ -4434,16 +4434,16 @@
         <v>43479</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q36" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S36" t="s">
         <v>57</v>
@@ -4484,16 +4484,16 @@
         <v>43479</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q37" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S37" t="s">
         <v>57</v>
@@ -4534,16 +4534,16 @@
         <v>43479</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S38" t="s">
         <v>57</v>
@@ -4584,16 +4584,16 @@
         <v>43479</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S39" t="s">
         <v>57</v>
@@ -4634,16 +4634,16 @@
         <v>43479</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P40" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S40" t="s">
         <v>57</v>
@@ -4684,16 +4684,16 @@
         <v>43479</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S41" t="s">
         <v>57</v>
@@ -4722,7 +4722,7 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I42" t="s">
         <v>178</v>
@@ -4731,22 +4731,22 @@
         <v>179</v>
       </c>
       <c r="K42" t="s">
-        <v>180</v>
+        <v>505</v>
       </c>
       <c r="M42" s="1">
         <v>43496</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O42" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S42" t="s">
         <v>46</v>
@@ -4775,31 +4775,31 @@
         <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I43" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" t="s">
         <v>181</v>
       </c>
-      <c r="J43" t="s">
-        <v>182</v>
-      </c>
       <c r="K43" t="s">
-        <v>183</v>
+        <v>506</v>
       </c>
       <c r="M43" s="1">
         <v>43496</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P43" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S43" t="s">
         <v>46</v>
@@ -4828,31 +4828,31 @@
         <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K44" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="M44" s="1">
         <v>43496</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P44" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q44" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S44" t="s">
         <v>46</v>
@@ -4881,31 +4881,31 @@
         <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I45" t="s">
         <v>178</v>
       </c>
       <c r="J45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M45" s="1">
         <v>43496</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O45" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P45" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q45" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S45" t="s">
         <v>46</v>
@@ -4934,31 +4934,31 @@
         <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M46" s="1">
         <v>43496</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O46" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S46" t="s">
         <v>46</v>
@@ -4987,31 +4987,31 @@
         <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M47" s="1">
         <v>43496</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S47" t="s">
         <v>46</v>
@@ -5040,7 +5040,7 @@
         <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I48" t="s">
         <v>178</v>
@@ -5049,22 +5049,22 @@
         <v>178</v>
       </c>
       <c r="K48" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M48" s="1">
         <v>43496</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P48" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q48" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S48" t="s">
         <v>46</v>
@@ -5093,31 +5093,31 @@
         <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K49" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M49" s="1">
         <v>43496</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O49" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q49" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S49" t="s">
         <v>46</v>
@@ -5146,31 +5146,31 @@
         <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M50" s="1">
         <v>43496</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P50" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q50" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S50" t="s">
         <v>46</v>
@@ -5199,31 +5199,31 @@
         <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M51" s="1">
         <v>43496</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q51" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S51" t="s">
         <v>57</v>
@@ -5252,31 +5252,31 @@
         <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I52" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K52" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M52" s="1">
         <v>43496</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O52" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S52" t="s">
         <v>57</v>
@@ -5305,31 +5305,31 @@
         <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M53" s="1">
         <v>43496</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q53" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S53" t="s">
         <v>57</v>
@@ -5358,31 +5358,31 @@
         <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M54" s="1">
         <v>43496</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O54" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q54" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S54" t="s">
         <v>57</v>
@@ -5411,31 +5411,31 @@
         <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M55" s="1">
         <v>43496</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q55" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S55" t="s">
         <v>57</v>
@@ -5464,31 +5464,31 @@
         <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K56" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M56" s="1">
         <v>43496</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O56" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P56" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q56" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S56" t="s">
         <v>57</v>
@@ -5514,10 +5514,10 @@
         <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H57" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I57" t="s">
         <v>178</v>
@@ -5526,22 +5526,22 @@
         <v>179</v>
       </c>
       <c r="K57" t="s">
-        <v>180</v>
+        <v>505</v>
       </c>
       <c r="M57" s="1">
         <v>43515</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q57" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S57" t="s">
         <v>46</v>
@@ -5567,34 +5567,34 @@
         <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I58" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" t="s">
         <v>181</v>
       </c>
-      <c r="J58" t="s">
-        <v>182</v>
-      </c>
       <c r="K58" t="s">
-        <v>183</v>
+        <v>506</v>
       </c>
       <c r="M58" s="1">
         <v>43515</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P58" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q58" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S58" t="s">
         <v>46</v>
@@ -5620,34 +5620,34 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K59" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
       <c r="M59" s="1">
         <v>43515</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O59" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q59" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S59" t="s">
         <v>46</v>
@@ -5673,34 +5673,34 @@
         <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I60" t="s">
         <v>178</v>
       </c>
       <c r="J60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M60" s="1">
         <v>43515</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O60" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q60" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S60" t="s">
         <v>46</v>
@@ -5726,34 +5726,34 @@
         <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K61" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M61" s="1">
         <v>43515</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O61" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q61" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S61" t="s">
         <v>46</v>
@@ -5779,34 +5779,34 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H62" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K62" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M62" s="1">
         <v>43515</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O62" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q62" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S62" t="s">
         <v>46</v>
@@ -5832,10 +5832,10 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H63" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I63" t="s">
         <v>178</v>
@@ -5844,22 +5844,22 @@
         <v>178</v>
       </c>
       <c r="K63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M63" s="1">
         <v>43515</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P63" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q63" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S63" t="s">
         <v>46</v>
@@ -5885,34 +5885,34 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K64" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M64" s="1">
         <v>43515</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q64" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S64" t="s">
         <v>46</v>
@@ -5938,34 +5938,34 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H65" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K65" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M65" s="1">
         <v>43515</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P65" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q65" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="S65" t="s">
         <v>46</v>
@@ -5994,34 +5994,34 @@
         <v>41</v>
       </c>
       <c r="H66" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I66" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J66" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K66" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L66" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M66" s="1">
         <v>43523</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O66" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P66" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q66" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S66" t="s">
         <v>57</v>
@@ -6050,34 +6050,34 @@
         <v>41</v>
       </c>
       <c r="H67" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I67" t="s">
+        <v>221</v>
+      </c>
+      <c r="J67" t="s">
+        <v>222</v>
+      </c>
+      <c r="K67" t="s">
+        <v>223</v>
+      </c>
+      <c r="L67" t="s">
         <v>224</v>
-      </c>
-      <c r="J67" t="s">
-        <v>225</v>
-      </c>
-      <c r="K67" t="s">
-        <v>226</v>
-      </c>
-      <c r="L67" t="s">
-        <v>227</v>
       </c>
       <c r="M67" s="1">
         <v>43523</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O67" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q67" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S67" t="s">
         <v>57</v>
@@ -6106,34 +6106,34 @@
         <v>41</v>
       </c>
       <c r="H68" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I68" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J68" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M68" s="1">
         <v>43523</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q68" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S68" t="s">
         <v>57</v>
@@ -6162,34 +6162,34 @@
         <v>41</v>
       </c>
       <c r="H69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I69" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K69" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M69" s="1">
         <v>43523</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P69" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q69" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S69" t="s">
         <v>57</v>
@@ -6218,34 +6218,34 @@
         <v>41</v>
       </c>
       <c r="H70" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I70" t="s">
+        <v>227</v>
+      </c>
+      <c r="J70" t="s">
+        <v>228</v>
+      </c>
+      <c r="K70" t="s">
+        <v>229</v>
+      </c>
+      <c r="L70" t="s">
         <v>230</v>
-      </c>
-      <c r="J70" t="s">
-        <v>231</v>
-      </c>
-      <c r="K70" t="s">
-        <v>232</v>
-      </c>
-      <c r="L70" t="s">
-        <v>233</v>
       </c>
       <c r="M70" s="1">
         <v>43523</v>
       </c>
       <c r="N70" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O70" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P70" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q70" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S70" t="s">
         <v>57</v>
@@ -6274,34 +6274,34 @@
         <v>41</v>
       </c>
       <c r="H71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I71" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K71" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L71" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M71" s="1">
         <v>43523</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O71" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q71" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S71" t="s">
         <v>57</v>
@@ -6330,34 +6330,34 @@
         <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I72" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J72" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K72" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L72" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M72" s="1">
         <v>43523</v>
       </c>
       <c r="N72" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q72" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S72" t="s">
         <v>57</v>
@@ -6386,34 +6386,34 @@
         <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I73" t="s">
+        <v>233</v>
+      </c>
+      <c r="J73" t="s">
+        <v>234</v>
+      </c>
+      <c r="K73" t="s">
+        <v>235</v>
+      </c>
+      <c r="L73" t="s">
         <v>236</v>
-      </c>
-      <c r="J73" t="s">
-        <v>237</v>
-      </c>
-      <c r="K73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L73" t="s">
-        <v>239</v>
       </c>
       <c r="M73" s="1">
         <v>43523</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q73" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S73" t="s">
         <v>57</v>
@@ -6442,34 +6442,34 @@
         <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I74" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J74" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K74" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L74" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M74" s="1">
         <v>43523</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S74" t="s">
         <v>57</v>
@@ -6498,34 +6498,34 @@
         <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I75" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K75" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M75" s="1">
         <v>43531</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q75" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S75" t="s">
         <v>57</v>
@@ -6554,34 +6554,34 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I76" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K76" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M76" s="1">
         <v>43531</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O76" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P76" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q76" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S76" t="s">
         <v>57</v>
@@ -6610,34 +6610,34 @@
         <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M77" s="1">
         <v>43531</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O77" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q77" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S77" t="s">
         <v>57</v>
@@ -6666,34 +6666,34 @@
         <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M78" s="1">
         <v>43531</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O78" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q78" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S78" t="s">
         <v>57</v>
@@ -6722,34 +6722,34 @@
         <v>41</v>
       </c>
       <c r="H79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J79" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L79" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M79" s="1">
         <v>43531</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O79" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q79" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S79" t="s">
         <v>57</v>
@@ -6778,34 +6778,34 @@
         <v>41</v>
       </c>
       <c r="H80" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I80" t="s">
+        <v>252</v>
+      </c>
+      <c r="J80" t="s">
+        <v>253</v>
+      </c>
+      <c r="K80" t="s">
+        <v>254</v>
+      </c>
+      <c r="L80" t="s">
         <v>255</v>
-      </c>
-      <c r="J80" t="s">
-        <v>256</v>
-      </c>
-      <c r="K80" t="s">
-        <v>257</v>
-      </c>
-      <c r="L80" t="s">
-        <v>258</v>
       </c>
       <c r="M80" s="1">
         <v>43531</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O80" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q80" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S80" t="s">
         <v>57</v>
@@ -6834,34 +6834,34 @@
         <v>41</v>
       </c>
       <c r="H81" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I81" t="s">
+        <v>256</v>
+      </c>
+      <c r="J81" t="s">
+        <v>257</v>
+      </c>
+      <c r="K81" t="s">
+        <v>258</v>
+      </c>
+      <c r="L81" t="s">
         <v>259</v>
-      </c>
-      <c r="J81" t="s">
-        <v>260</v>
-      </c>
-      <c r="K81" t="s">
-        <v>261</v>
-      </c>
-      <c r="L81" t="s">
-        <v>262</v>
       </c>
       <c r="M81" s="1">
         <v>43531</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q81" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S81" t="s">
         <v>57</v>
@@ -6890,34 +6890,34 @@
         <v>41</v>
       </c>
       <c r="H82" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I82" t="s">
+        <v>260</v>
+      </c>
+      <c r="J82" t="s">
+        <v>261</v>
+      </c>
+      <c r="K82" t="s">
+        <v>262</v>
+      </c>
+      <c r="L82" t="s">
         <v>263</v>
-      </c>
-      <c r="J82" t="s">
-        <v>264</v>
-      </c>
-      <c r="K82" t="s">
-        <v>265</v>
-      </c>
-      <c r="L82" t="s">
-        <v>266</v>
       </c>
       <c r="M82" s="1">
         <v>43531</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O82" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q82" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S82" t="s">
         <v>57</v>
@@ -6946,34 +6946,34 @@
         <v>41</v>
       </c>
       <c r="H83" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I83" t="s">
+        <v>264</v>
+      </c>
+      <c r="J83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K83" t="s">
+        <v>266</v>
+      </c>
+      <c r="L83" t="s">
         <v>267</v>
-      </c>
-      <c r="J83" t="s">
-        <v>268</v>
-      </c>
-      <c r="K83" t="s">
-        <v>269</v>
-      </c>
-      <c r="L83" t="s">
-        <v>270</v>
       </c>
       <c r="M83" s="1">
         <v>43531</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O83" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P83" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q83" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S83" t="s">
         <v>57</v>
@@ -7002,34 +7002,34 @@
         <v>41</v>
       </c>
       <c r="H84" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I84" t="s">
+        <v>268</v>
+      </c>
+      <c r="J84" t="s">
+        <v>269</v>
+      </c>
+      <c r="K84" t="s">
+        <v>270</v>
+      </c>
+      <c r="L84" t="s">
         <v>271</v>
-      </c>
-      <c r="J84" t="s">
-        <v>272</v>
-      </c>
-      <c r="K84" t="s">
-        <v>273</v>
-      </c>
-      <c r="L84" t="s">
-        <v>274</v>
       </c>
       <c r="M84" s="1">
         <v>43531</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P84" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q84" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S84" t="s">
         <v>57</v>
@@ -7058,34 +7058,34 @@
         <v>41</v>
       </c>
       <c r="H85" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J85" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K85" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L85" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M85" s="1">
         <v>43531</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q85" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S85" t="s">
         <v>57</v>
@@ -7114,34 +7114,34 @@
         <v>41</v>
       </c>
       <c r="H86" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I86" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J86" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K86" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L86" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M86" s="1">
         <v>43531</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O86" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q86" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S86" t="s">
         <v>57</v>
@@ -7170,34 +7170,34 @@
         <v>41</v>
       </c>
       <c r="H87" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I87" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K87" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L87" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M87" s="1">
         <v>43531</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O87" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q87" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S87" t="s">
         <v>57</v>
@@ -7226,34 +7226,34 @@
         <v>41</v>
       </c>
       <c r="H88" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I88" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L88" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M88" s="1">
         <v>43531</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O88" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P88" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q88" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S88" t="s">
         <v>57</v>
@@ -7282,34 +7282,34 @@
         <v>41</v>
       </c>
       <c r="H89" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I89" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J89" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K89" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L89" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M89" s="1">
         <v>43531</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O89" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q89" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S89" t="s">
         <v>57</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B90" t="s">
         <v>19</v>
@@ -7326,7 +7326,7 @@
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
@@ -7338,25 +7338,25 @@
         <v>41</v>
       </c>
       <c r="H90" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I90" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J90" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O90" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P90" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q90" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S90" t="s">
         <v>46</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
@@ -7373,7 +7373,7 @@
         <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
@@ -7385,25 +7385,25 @@
         <v>41</v>
       </c>
       <c r="H91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I91" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J91" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q91" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S91" t="s">
         <v>46</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B92" t="s">
         <v>21</v>
@@ -7420,7 +7420,7 @@
         <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
@@ -7432,25 +7432,25 @@
         <v>41</v>
       </c>
       <c r="H92" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I92" t="s">
         <v>79</v>
       </c>
       <c r="J92" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q92" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S92" t="s">
         <v>46</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
@@ -7467,7 +7467,7 @@
         <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
@@ -7479,25 +7479,25 @@
         <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I93" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J93" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P93" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q93" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S93" t="s">
         <v>46</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
@@ -7514,7 +7514,7 @@
         <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E94" t="s">
         <v>30</v>
@@ -7526,25 +7526,25 @@
         <v>41</v>
       </c>
       <c r="H94" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I94" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J94" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N94" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q94" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S94" t="s">
         <v>46</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B95" t="s">
         <v>66</v>
@@ -7561,7 +7561,7 @@
         <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
@@ -7573,25 +7573,25 @@
         <v>41</v>
       </c>
       <c r="H95" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I95" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J95" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q95" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S95" t="s">
         <v>46</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s">
         <v>24</v>
@@ -7608,7 +7608,7 @@
         <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E96" t="s">
         <v>30</v>
@@ -7620,25 +7620,25 @@
         <v>41</v>
       </c>
       <c r="H96" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I96" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J96" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O96" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q96" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S96" t="s">
         <v>46</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B97" t="s">
         <v>25</v>
@@ -7655,7 +7655,7 @@
         <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
@@ -7667,25 +7667,25 @@
         <v>41</v>
       </c>
       <c r="H97" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I97" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J97" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O97" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q97" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S97" t="s">
         <v>46</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
@@ -7702,7 +7702,7 @@
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
@@ -7714,25 +7714,25 @@
         <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I98" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J98" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q98" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S98" t="s">
         <v>46</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B99" t="s">
         <v>27</v>
@@ -7749,7 +7749,7 @@
         <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
@@ -7761,25 +7761,25 @@
         <v>41</v>
       </c>
       <c r="H99" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I99" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J99" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O99" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q99" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S99" t="s">
         <v>46</v>
@@ -7787,7 +7787,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B100" t="s">
         <v>28</v>
@@ -7796,7 +7796,7 @@
         <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E100" t="s">
         <v>30</v>
@@ -7808,25 +7808,25 @@
         <v>41</v>
       </c>
       <c r="H100" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I100" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J100" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q100" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S100" t="s">
         <v>46</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B101" t="s">
         <v>70</v>
@@ -7843,7 +7843,7 @@
         <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E101" t="s">
         <v>30</v>
@@ -7855,25 +7855,25 @@
         <v>41</v>
       </c>
       <c r="H101" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I101" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J101" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O101" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q101" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S101" t="s">
         <v>46</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B102" t="s">
         <v>175</v>
@@ -7890,7 +7890,7 @@
         <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E102" t="s">
         <v>30</v>
@@ -7902,25 +7902,25 @@
         <v>41</v>
       </c>
       <c r="H102" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I102" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J102" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q102" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S102" t="s">
         <v>46</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B103" t="s">
         <v>19</v>
@@ -7937,7 +7937,7 @@
         <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E103" t="s">
         <v>30</v>
@@ -7949,25 +7949,25 @@
         <v>41</v>
       </c>
       <c r="H103" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I103" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J103" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q103" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S103" t="s">
         <v>57</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -7984,7 +7984,7 @@
         <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
@@ -7996,25 +7996,25 @@
         <v>41</v>
       </c>
       <c r="H104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I104" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J104" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O104" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q104" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S104" t="s">
         <v>57</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
@@ -8031,7 +8031,7 @@
         <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E105" t="s">
         <v>30</v>
@@ -8043,25 +8043,25 @@
         <v>41</v>
       </c>
       <c r="H105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I105" t="s">
         <v>77</v>
       </c>
       <c r="J105" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q105" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S105" t="s">
         <v>57</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
@@ -8078,7 +8078,7 @@
         <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E106" t="s">
         <v>30</v>
@@ -8090,25 +8090,25 @@
         <v>41</v>
       </c>
       <c r="H106" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I106" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J106" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O106" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q106" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S106" t="s">
         <v>57</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
@@ -8125,7 +8125,7 @@
         <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
@@ -8137,25 +8137,25 @@
         <v>41</v>
       </c>
       <c r="H107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I107" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J107" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O107" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P107" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q107" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S107" t="s">
         <v>57</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B108" t="s">
         <v>66</v>
@@ -8172,7 +8172,7 @@
         <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E108" t="s">
         <v>30</v>
@@ -8184,25 +8184,25 @@
         <v>41</v>
       </c>
       <c r="H108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I108" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J108" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O108" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P108" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q108" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S108" t="s">
         <v>57</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B109" t="s">
         <v>24</v>
@@ -8219,7 +8219,7 @@
         <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E109" t="s">
         <v>30</v>
@@ -8231,25 +8231,25 @@
         <v>41</v>
       </c>
       <c r="H109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I109" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J109" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O109" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q109" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S109" t="s">
         <v>57</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
@@ -8266,7 +8266,7 @@
         <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E110" t="s">
         <v>30</v>
@@ -8278,25 +8278,25 @@
         <v>41</v>
       </c>
       <c r="H110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I110" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J110" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O110" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q110" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S110" t="s">
         <v>57</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
@@ -8313,7 +8313,7 @@
         <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E111" t="s">
         <v>30</v>
@@ -8325,25 +8325,25 @@
         <v>41</v>
       </c>
       <c r="H111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I111" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J111" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O111" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q111" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S111" t="s">
         <v>57</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B112" t="s">
         <v>27</v>
@@ -8360,7 +8360,7 @@
         <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E112" t="s">
         <v>30</v>
@@ -8372,25 +8372,25 @@
         <v>41</v>
       </c>
       <c r="H112" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I112" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J112" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O112" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q112" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S112" t="s">
         <v>57</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B113" t="s">
         <v>28</v>
@@ -8407,7 +8407,7 @@
         <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
@@ -8419,25 +8419,25 @@
         <v>41</v>
       </c>
       <c r="H113" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I113" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J113" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N113" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O113" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P113" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q113" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S113" t="s">
         <v>57</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B114" t="s">
         <v>70</v>
@@ -8454,7 +8454,7 @@
         <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
@@ -8466,25 +8466,25 @@
         <v>41</v>
       </c>
       <c r="H114" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I114" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J114" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N114" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O114" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q114" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S114" t="s">
         <v>57</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B115" t="s">
         <v>175</v>
@@ -8501,7 +8501,7 @@
         <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E115" t="s">
         <v>30</v>
@@ -8513,25 +8513,25 @@
         <v>41</v>
       </c>
       <c r="H115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I115" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J115" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O115" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q115" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S115" t="s">
         <v>57</v>
@@ -8548,40 +8548,40 @@
         <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E116" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F116" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G116" t="s">
         <v>41</v>
       </c>
       <c r="H116" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I116" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J116" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K116" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N116" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O116" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P116" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q116" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S116" t="s">
         <v>46</v>
@@ -8598,40 +8598,40 @@
         <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E117" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F117" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G117" t="s">
         <v>41</v>
       </c>
       <c r="H117" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I117" t="s">
+        <v>384</v>
+      </c>
+      <c r="J117" t="s">
         <v>387</v>
       </c>
-      <c r="J117" t="s">
-        <v>390</v>
-      </c>
       <c r="K117" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N117" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O117" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q117" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S117" t="s">
         <v>46</v>
@@ -8648,40 +8648,40 @@
         <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E118" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F118" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G118" t="s">
         <v>41</v>
       </c>
       <c r="H118" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I118" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J118" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K118" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N118" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O118" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q118" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S118" t="s">
         <v>46</v>
@@ -8698,40 +8698,40 @@
         <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E119" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F119" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
       </c>
       <c r="H119" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I119" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J119" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K119" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N119" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O119" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q119" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S119" t="s">
         <v>46</v>
@@ -8748,40 +8748,40 @@
         <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E120" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F120" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G120" t="s">
         <v>41</v>
       </c>
       <c r="H120" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I120" t="s">
+        <v>384</v>
+      </c>
+      <c r="J120" t="s">
         <v>387</v>
       </c>
-      <c r="J120" t="s">
-        <v>390</v>
-      </c>
       <c r="K120" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N120" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O120" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q120" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S120" t="s">
         <v>46</v>
@@ -8798,40 +8798,40 @@
         <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E121" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F121" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G121" t="s">
         <v>41</v>
       </c>
       <c r="H121" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I121" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J121" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K121" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N121" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O121" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P121" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q121" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S121" t="s">
         <v>46</v>
@@ -8848,40 +8848,40 @@
         <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E122" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F122" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G122" t="s">
         <v>41</v>
       </c>
       <c r="H122" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I122" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J122" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K122" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N122" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O122" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q122" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S122" t="s">
         <v>46</v>
@@ -8898,40 +8898,40 @@
         <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E123" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F123" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G123" t="s">
         <v>41</v>
       </c>
       <c r="H123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I123" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J123" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K123" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N123" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O123" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q123" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S123" t="s">
         <v>46</v>
@@ -8948,40 +8948,40 @@
         <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E124" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F124" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G124" t="s">
         <v>41</v>
       </c>
       <c r="H124" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I124" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J124" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K124" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N124" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O124" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q124" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S124" t="s">
         <v>46</v>
@@ -8998,40 +8998,40 @@
         <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E125" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F125" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
       </c>
       <c r="H125" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I125" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J125" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K125" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N125" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O125" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q125" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S125" t="s">
         <v>46</v>
@@ -9048,40 +9048,40 @@
         <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E126" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F126" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G126" t="s">
         <v>41</v>
       </c>
       <c r="H126" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I126" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J126" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K126" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N126" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O126" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q126" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S126" t="s">
         <v>46</v>
@@ -9098,40 +9098,40 @@
         <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E127" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F127" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
       </c>
       <c r="H127" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I127" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J127" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K127" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="N127" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O127" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q127" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S127" t="s">
         <v>46</v>
@@ -9148,31 +9148,31 @@
         <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E128" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G128" t="s">
         <v>41</v>
       </c>
       <c r="H128" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I128" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J128" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N128" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="O128" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q128" t="s">
         <v>503</v>
-      </c>
-      <c r="O128" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>506</v>
       </c>
       <c r="S128" t="s">
         <v>46</v>
@@ -9189,31 +9189,31 @@
         <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E129" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
       </c>
       <c r="H129" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I129" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J129" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N129" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O129" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q129" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S129" t="s">
         <v>46</v>
@@ -9230,37 +9230,37 @@
         <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E130" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F130" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G130" t="s">
         <v>41</v>
       </c>
       <c r="H130" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I130" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J130" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N130" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O130" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q130" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S130" t="s">
         <v>46</v>
@@ -9277,31 +9277,31 @@
         <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E131" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
       </c>
       <c r="H131" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I131" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J131" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N131" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="O131" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q131" t="s">
         <v>503</v>
-      </c>
-      <c r="O131" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>506</v>
       </c>
       <c r="S131" t="s">
         <v>46</v>
@@ -9318,31 +9318,31 @@
         <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E132" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G132" t="s">
         <v>41</v>
       </c>
       <c r="H132" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I132" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J132" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N132" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O132" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q132" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S132" t="s">
         <v>46</v>
@@ -9359,37 +9359,37 @@
         <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E133" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F133" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G133" t="s">
         <v>41</v>
       </c>
       <c r="H133" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I133" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J133" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N133" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O133" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q133" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S133" t="s">
         <v>46</v>
@@ -9406,31 +9406,31 @@
         <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E134" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
       </c>
       <c r="H134" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I134" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J134" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N134" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="O134" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q134" t="s">
         <v>503</v>
-      </c>
-      <c r="O134" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>506</v>
       </c>
       <c r="S134" t="s">
         <v>46</v>
@@ -9447,31 +9447,31 @@
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E135" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G135" t="s">
         <v>41</v>
       </c>
       <c r="H135" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I135" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J135" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N135" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O135" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q135" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S135" t="s">
         <v>46</v>
@@ -9488,37 +9488,37 @@
         <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E136" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F136" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
       </c>
       <c r="H136" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I136" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J136" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N136" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O136" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q136" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S136" t="s">
         <v>46</v>
@@ -9535,31 +9535,31 @@
         <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E137" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G137" t="s">
         <v>41</v>
       </c>
       <c r="H137" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I137" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J137" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N137" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="O137" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q137" t="s">
         <v>503</v>
-      </c>
-      <c r="O137" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>506</v>
       </c>
       <c r="S137" t="s">
         <v>46</v>
@@ -9576,31 +9576,31 @@
         <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E138" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G138" t="s">
         <v>41</v>
       </c>
       <c r="H138" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I138" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J138" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N138" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O138" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q138" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S138" t="s">
         <v>46</v>
@@ -9617,37 +9617,37 @@
         <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E139" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F139" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G139" t="s">
         <v>41</v>
       </c>
       <c r="H139" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I139" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J139" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N139" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O139" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q139" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S139" t="s">
         <v>46</v>
@@ -9664,34 +9664,34 @@
         <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E140" t="s">
+        <v>452</v>
+      </c>
+      <c r="G140" t="s">
+        <v>41</v>
+      </c>
+      <c r="H140" t="s">
+        <v>451</v>
+      </c>
+      <c r="I140" t="s">
         <v>455</v>
       </c>
-      <c r="G140" t="s">
-        <v>41</v>
-      </c>
-      <c r="H140" t="s">
-        <v>454</v>
-      </c>
-      <c r="I140" t="s">
-        <v>458</v>
-      </c>
       <c r="J140" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N140" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O140" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q140" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R140" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S140" t="s">
         <v>46</v>
@@ -9708,34 +9708,34 @@
         <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E141" t="s">
+        <v>453</v>
+      </c>
+      <c r="G141" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141" t="s">
+        <v>204</v>
+      </c>
+      <c r="I141" t="s">
+        <v>455</v>
+      </c>
+      <c r="J141" t="s">
         <v>456</v>
       </c>
-      <c r="G141" t="s">
-        <v>41</v>
-      </c>
-      <c r="H141" t="s">
-        <v>207</v>
-      </c>
-      <c r="I141" t="s">
-        <v>458</v>
-      </c>
-      <c r="J141" t="s">
-        <v>459</v>
-      </c>
       <c r="N141" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q141" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R141" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S141" t="s">
         <v>46</v>
@@ -9752,40 +9752,40 @@
         <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E142" t="s">
+        <v>452</v>
+      </c>
+      <c r="F142" t="s">
+        <v>453</v>
+      </c>
+      <c r="G142" t="s">
+        <v>41</v>
+      </c>
+      <c r="H142" t="s">
+        <v>204</v>
+      </c>
+      <c r="I142" t="s">
         <v>455</v>
       </c>
-      <c r="F142" t="s">
+      <c r="J142" t="s">
         <v>456</v>
       </c>
-      <c r="G142" t="s">
-        <v>41</v>
-      </c>
-      <c r="H142" t="s">
-        <v>207</v>
-      </c>
-      <c r="I142" t="s">
-        <v>458</v>
-      </c>
-      <c r="J142" t="s">
-        <v>459</v>
-      </c>
       <c r="N142" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q142" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R142" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S142" t="s">
         <v>46</v>
@@ -9802,34 +9802,34 @@
         <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E143" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G143" t="s">
         <v>41</v>
       </c>
       <c r="H143" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I143" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J143" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N143" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q143" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R143" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S143" t="s">
         <v>46</v>
@@ -9846,34 +9846,34 @@
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E144" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
       </c>
       <c r="H144" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I144" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J144" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N144" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q144" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R144" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S144" t="s">
         <v>46</v>
@@ -9890,40 +9890,40 @@
         <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E145" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F145" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G145" t="s">
         <v>41</v>
       </c>
       <c r="H145" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I145" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J145" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N145" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q145" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R145" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S145" t="s">
         <v>46</v>
@@ -9940,34 +9940,34 @@
         <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E146" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
       </c>
       <c r="H146" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I146" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J146" t="s">
+        <v>461</v>
+      </c>
+      <c r="N146" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="O146" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>318</v>
+      </c>
+      <c r="R146" t="s">
         <v>464</v>
-      </c>
-      <c r="N146" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="O146" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>321</v>
-      </c>
-      <c r="R146" t="s">
-        <v>467</v>
       </c>
       <c r="S146" t="s">
         <v>46</v>
@@ -9984,34 +9984,34 @@
         <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E147" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
       </c>
       <c r="H147" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I147" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J147" t="s">
+        <v>461</v>
+      </c>
+      <c r="N147" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="O147" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>318</v>
+      </c>
+      <c r="R147" t="s">
         <v>464</v>
-      </c>
-      <c r="N147" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="O147" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>321</v>
-      </c>
-      <c r="R147" t="s">
-        <v>467</v>
       </c>
       <c r="S147" t="s">
         <v>46</v>
@@ -10028,40 +10028,40 @@
         <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E148" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F148" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G148" t="s">
         <v>41</v>
       </c>
       <c r="H148" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I148" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J148" t="s">
+        <v>461</v>
+      </c>
+      <c r="N148" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="O148" t="s">
+        <v>278</v>
+      </c>
+      <c r="P148" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>318</v>
+      </c>
+      <c r="R148" t="s">
         <v>464</v>
-      </c>
-      <c r="N148" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="O148" t="s">
-        <v>281</v>
-      </c>
-      <c r="P148" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>321</v>
-      </c>
-      <c r="R148" t="s">
-        <v>467</v>
       </c>
       <c r="S148" t="s">
         <v>46</v>
@@ -10078,34 +10078,34 @@
         <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E149" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G149" t="s">
         <v>41</v>
       </c>
       <c r="H149" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I149" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J149" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N149" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O149" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q149" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R149" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S149" t="s">
         <v>46</v>
@@ -10122,34 +10122,34 @@
         <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E150" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
       </c>
       <c r="H150" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I150" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J150" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N150" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q150" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R150" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S150" t="s">
         <v>46</v>
@@ -10166,40 +10166,40 @@
         <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E151" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F151" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G151" t="s">
         <v>41</v>
       </c>
       <c r="H151" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I151" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J151" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N151" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O151" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q151" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R151" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="S151" t="s">
         <v>46</v>
@@ -10213,40 +10213,40 @@
         <v>19</v>
       </c>
       <c r="D152" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E152" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F152" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
       </c>
       <c r="H152" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I152" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J152" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M152" s="1">
         <v>44159</v>
       </c>
       <c r="N152" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O152" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P152" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q152" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S152" t="s">
         <v>46</v>
@@ -10260,40 +10260,40 @@
         <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E153" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F153" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
       </c>
       <c r="H153" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I153" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J153" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M153" s="1">
         <v>44159</v>
       </c>
       <c r="N153" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O153" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q153" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S153" t="s">
         <v>46</v>
@@ -10307,40 +10307,40 @@
         <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E154" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F154" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G154" t="s">
         <v>41</v>
       </c>
       <c r="H154" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I154" t="s">
         <v>88</v>
       </c>
       <c r="J154" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M154" s="1">
         <v>44159</v>
       </c>
       <c r="N154" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O154" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q154" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S154" t="s">
         <v>46</v>
@@ -10354,40 +10354,40 @@
         <v>22</v>
       </c>
       <c r="D155" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E155" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F155" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G155" t="s">
         <v>41</v>
       </c>
       <c r="H155" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I155" t="s">
         <v>88</v>
       </c>
       <c r="J155" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M155" s="1">
         <v>44159</v>
       </c>
       <c r="N155" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O155" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q155" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S155" t="s">
         <v>46</v>
@@ -10401,40 +10401,40 @@
         <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E156" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F156" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
       </c>
       <c r="H156" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I156" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J156" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M156" s="1">
         <v>44159</v>
       </c>
       <c r="N156" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O156" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q156" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S156" t="s">
         <v>46</v>
@@ -10448,40 +10448,40 @@
         <v>66</v>
       </c>
       <c r="D157" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E157" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F157" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G157" t="s">
         <v>41</v>
       </c>
       <c r="H157" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I157" t="s">
+        <v>474</v>
+      </c>
+      <c r="J157" t="s">
         <v>477</v>
-      </c>
-      <c r="J157" t="s">
-        <v>480</v>
       </c>
       <c r="M157" s="1">
         <v>44159</v>
       </c>
       <c r="N157" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O157" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q157" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S157" t="s">
         <v>46</v>
@@ -10495,40 +10495,40 @@
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E158" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F158" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
       </c>
       <c r="H158" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J158" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M158" s="1">
         <v>44159</v>
       </c>
       <c r="N158" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O158" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P158" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q158" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S158" t="s">
         <v>46</v>
@@ -10542,40 +10542,40 @@
         <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E159" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F159" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G159" t="s">
         <v>41</v>
       </c>
       <c r="H159" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I159" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J159" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M159" s="1">
         <v>44159</v>
       </c>
       <c r="N159" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O159" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q159" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S159" t="s">
         <v>46</v>
@@ -10589,40 +10589,40 @@
         <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E160" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F160" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
       </c>
       <c r="H160" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I160" t="s">
         <v>88</v>
       </c>
       <c r="J160" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M160" s="1">
         <v>44159</v>
       </c>
       <c r="N160" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O160" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q160" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S160" t="s">
         <v>46</v>
@@ -10636,40 +10636,40 @@
         <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E161" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F161" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G161" t="s">
         <v>41</v>
       </c>
       <c r="H161" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I161" t="s">
         <v>88</v>
       </c>
       <c r="J161" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M161" s="1">
         <v>44159</v>
       </c>
       <c r="N161" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O161" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q161" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S161" t="s">
         <v>46</v>
@@ -10683,40 +10683,40 @@
         <v>28</v>
       </c>
       <c r="D162" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E162" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F162" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G162" t="s">
         <v>41</v>
       </c>
       <c r="H162" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I162" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J162" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M162" s="1">
         <v>44159</v>
       </c>
       <c r="N162" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O162" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S162" t="s">
         <v>46</v>
@@ -10730,40 +10730,40 @@
         <v>70</v>
       </c>
       <c r="D163" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E163" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F163" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G163" t="s">
         <v>41</v>
       </c>
       <c r="H163" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I163" t="s">
+        <v>474</v>
+      </c>
+      <c r="J163" t="s">
         <v>477</v>
-      </c>
-      <c r="J163" t="s">
-        <v>480</v>
       </c>
       <c r="M163" s="1">
         <v>44159</v>
       </c>
       <c r="N163" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O163" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S163" t="s">
         <v>46</v>
@@ -10777,40 +10777,40 @@
         <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E164" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F164" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G164" t="s">
         <v>41</v>
       </c>
       <c r="H164" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I164" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J164" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M164" s="1">
         <v>44176</v>
       </c>
       <c r="N164" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O164" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P164" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S164" t="s">
         <v>46</v>
@@ -10824,40 +10824,40 @@
         <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E165" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F165" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G165" t="s">
         <v>41</v>
       </c>
       <c r="H165" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I165" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J165" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M165" s="1">
         <v>44176</v>
       </c>
       <c r="N165" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O165" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P165" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q165" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S165" t="s">
         <v>46</v>
@@ -10871,40 +10871,40 @@
         <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E166" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F166" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G166" t="s">
         <v>41</v>
       </c>
       <c r="H166" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I166" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J166" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M166" s="1">
         <v>44176</v>
       </c>
       <c r="N166" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O166" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P166" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S166" t="s">
         <v>46</v>
@@ -10918,40 +10918,40 @@
         <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E167" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F167" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
       </c>
       <c r="H167" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I167" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J167" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M167" s="1">
         <v>44176</v>
       </c>
       <c r="N167" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O167" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P167" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S167" t="s">
         <v>46</v>
@@ -10965,40 +10965,40 @@
         <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E168" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F168" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G168" t="s">
         <v>41</v>
       </c>
       <c r="H168" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I168" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J168" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M168" s="1">
         <v>44176</v>
       </c>
       <c r="N168" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O168" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S168" t="s">
         <v>46</v>
@@ -11012,22 +11012,22 @@
         <v>66</v>
       </c>
       <c r="D169" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E169" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F169" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
       </c>
       <c r="H169" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I169" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J169" t="s">
         <v>78</v>
@@ -11036,16 +11036,16 @@
         <v>44176</v>
       </c>
       <c r="N169" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O169" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P169" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S169" t="s">
         <v>46</v>
@@ -11059,22 +11059,22 @@
         <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E170" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F170" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G170" t="s">
         <v>41</v>
       </c>
       <c r="H170" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I170" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J170" t="s">
         <v>103</v>
@@ -11083,16 +11083,16 @@
         <v>44176</v>
       </c>
       <c r="N170" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O170" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P170" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q170" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S170" t="s">
         <v>46</v>
@@ -11106,22 +11106,22 @@
         <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E171" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F171" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G171" t="s">
         <v>41</v>
       </c>
       <c r="H171" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I171" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J171" t="s">
         <v>103</v>
@@ -11130,16 +11130,16 @@
         <v>44176</v>
       </c>
       <c r="N171" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O171" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P171" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q171" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S171" t="s">
         <v>46</v>
@@ -11153,40 +11153,40 @@
         <v>26</v>
       </c>
       <c r="D172" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E172" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F172" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
       </c>
       <c r="H172" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I172" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J172" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M172" s="1">
         <v>44176</v>
       </c>
       <c r="N172" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O172" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P172" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q172" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S172" t="s">
         <v>46</v>
@@ -11200,40 +11200,40 @@
         <v>27</v>
       </c>
       <c r="D173" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E173" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F173" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G173" t="s">
         <v>41</v>
       </c>
       <c r="H173" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I173" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J173" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M173" s="1">
         <v>44176</v>
       </c>
       <c r="N173" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P173" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q173" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S173" t="s">
         <v>46</v>
@@ -11247,40 +11247,40 @@
         <v>19</v>
       </c>
       <c r="D174" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E174" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F174" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
       </c>
       <c r="H174" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I174" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J174" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M174" s="1">
         <v>44176</v>
       </c>
       <c r="N174" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O174" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P174" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S174" t="s">
         <v>46</v>
@@ -11294,40 +11294,40 @@
         <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E175" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F175" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G175" t="s">
         <v>41</v>
       </c>
       <c r="H175" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I175" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J175" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M175" s="1">
         <v>44176</v>
       </c>
       <c r="N175" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O175" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P175" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q175" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S175" t="s">
         <v>46</v>
@@ -11341,40 +11341,40 @@
         <v>21</v>
       </c>
       <c r="D176" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E176" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F176" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G176" t="s">
         <v>41</v>
       </c>
       <c r="H176" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I176" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J176" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M176" s="1">
         <v>44176</v>
       </c>
       <c r="N176" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O176" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P176" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q176" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S176" t="s">
         <v>46</v>
@@ -11388,40 +11388,40 @@
         <v>22</v>
       </c>
       <c r="D177" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E177" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F177" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G177" t="s">
         <v>41</v>
       </c>
       <c r="H177" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I177" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J177" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M177" s="1">
         <v>44176</v>
       </c>
       <c r="N177" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O177" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P177" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q177" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S177" t="s">
         <v>46</v>
@@ -11435,40 +11435,40 @@
         <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E178" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F178" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G178" t="s">
         <v>41</v>
       </c>
       <c r="H178" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I178" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J178" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M178" s="1">
         <v>44176</v>
       </c>
       <c r="N178" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O178" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P178" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q178" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S178" t="s">
         <v>46</v>
@@ -11482,22 +11482,22 @@
         <v>66</v>
       </c>
       <c r="D179" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E179" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F179" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G179" t="s">
         <v>41</v>
       </c>
       <c r="H179" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I179" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J179" t="s">
         <v>78</v>
@@ -11506,16 +11506,16 @@
         <v>44176</v>
       </c>
       <c r="N179" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O179" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P179" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q179" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S179" t="s">
         <v>46</v>
@@ -11529,22 +11529,22 @@
         <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E180" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F180" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
       </c>
       <c r="H180" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I180" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J180" t="s">
         <v>103</v>
@@ -11553,16 +11553,16 @@
         <v>44176</v>
       </c>
       <c r="N180" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O180" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P180" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q180" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S180" t="s">
         <v>46</v>
@@ -11576,22 +11576,22 @@
         <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E181" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F181" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G181" t="s">
         <v>41</v>
       </c>
       <c r="H181" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I181" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J181" t="s">
         <v>103</v>
@@ -11600,16 +11600,16 @@
         <v>44176</v>
       </c>
       <c r="N181" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O181" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P181" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q181" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S181" t="s">
         <v>46</v>
@@ -11623,40 +11623,40 @@
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E182" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F182" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
       </c>
       <c r="H182" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I182" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J182" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M182" s="1">
         <v>44176</v>
       </c>
       <c r="N182" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O182" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P182" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q182" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S182" t="s">
         <v>46</v>
@@ -11670,40 +11670,40 @@
         <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E183" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F183" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
       </c>
       <c r="H183" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I183" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J183" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M183" s="1">
         <v>44176</v>
       </c>
       <c r="N183" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O183" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P183" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q183" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S183" t="s">
         <v>46</v>
@@ -11731,18 +11731,18 @@
   <sheetData>
     <row r="16" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K17" t="s">
         <v>63</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -11764,10 +11764,10 @@
         <v>2.3600000000000003</v>
       </c>
       <c r="J18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L18" t="str">
         <f>K18&amp;","&amp;$H$25</f>
@@ -11783,10 +11783,10 @@
         <v>0.86000000000000032</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L19" t="str">
         <f>K19&amp;","&amp;$H$25</f>
@@ -11802,7 +11802,7 @@
         <v>0.16000000000000014</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
         <v>64</v>
@@ -11817,10 +11817,10 @@
         <v>7.36</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L21" t="str">
         <f>K21&amp;","&amp;$I$25</f>
@@ -11835,10 +11835,10 @@
         <v>117</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L22" t="str">
         <f>K22&amp;","&amp;$I$25</f>
@@ -11847,25 +11847,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
         <v>63</v>
@@ -11877,31 +11877,31 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L24" t="str">
         <f>K24&amp;","&amp;$H$25</f>
@@ -11940,10 +11940,10 @@
         <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L25" t="str">
         <f>K25&amp;","&amp;$H$25</f>
@@ -11952,7 +11952,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J26" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
         <v>64</v>
@@ -11964,10 +11964,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J27" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L27" t="str">
         <f>K27&amp;","&amp;$I$25</f>
@@ -11976,10 +11976,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J28" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L28" t="str">
         <f>K28&amp;","&amp;$I$25</f>
@@ -11991,7 +11991,7 @@
         <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ref="C34:D36" si="0">B$20&amp;",["&amp;K17&amp;"]"</f>
@@ -12010,7 +12010,7 @@
         <v>0.16,[atc1,sal]</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12018,7 +12018,7 @@
         <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -12037,7 +12037,7 @@
         <v>0.16,[atc1,cin,sal]</v>
       </c>
       <c r="G35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -12045,7 +12045,7 @@
         <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -12064,7 +12064,7 @@
         <v>0.16,[atc1,ara,sal]</v>
       </c>
       <c r="G36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12072,7 +12072,7 @@
         <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ref="C37:D39" si="3">B$19&amp;",["&amp;K17&amp;"]"</f>
@@ -12091,7 +12091,7 @@
         <v>0.86,[atc1,sal]</v>
       </c>
       <c r="G37" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -12099,7 +12099,7 @@
         <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="3"/>
@@ -12118,7 +12118,7 @@
         <v>0.86,[atc1,cin,sal]</v>
       </c>
       <c r="G38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -12126,7 +12126,7 @@
         <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="3"/>
@@ -12145,7 +12145,7 @@
         <v>0.86,[atc1,ara,sal]</v>
       </c>
       <c r="G39" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -12153,7 +12153,7 @@
         <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C40" t="str">
         <f>B$20&amp;",["&amp;K20&amp;"]"</f>
@@ -12172,7 +12172,7 @@
         <v>0.16,[sal1,atc]</v>
       </c>
       <c r="G40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -12180,7 +12180,7 @@
         <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" ref="C41:D41" si="6">B$20&amp;",["&amp;K21&amp;"]"</f>
@@ -12199,7 +12199,7 @@
         <v>0.16,[sal1,cin,atc]</v>
       </c>
       <c r="G41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -12207,7 +12207,7 @@
         <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42:D42" si="8">B$20&amp;",["&amp;K22&amp;"]"</f>
@@ -12226,7 +12226,7 @@
         <v>0.16,[sal1,ara,atc]</v>
       </c>
       <c r="G42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -12234,7 +12234,7 @@
         <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C43" t="str">
         <f>B$19&amp;",["&amp;K20&amp;"]"</f>
@@ -12253,7 +12253,7 @@
         <v>0.86,[sal1,atc]</v>
       </c>
       <c r="G43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -12261,7 +12261,7 @@
         <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ref="C44:D44" si="10">B$19&amp;",["&amp;K21&amp;"]"</f>
@@ -12280,7 +12280,7 @@
         <v>0.86,[sal1,cin,atc]</v>
       </c>
       <c r="G44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -12288,7 +12288,7 @@
         <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ref="C45:D45" si="12">B$19&amp;",["&amp;K22&amp;"]"</f>
@@ -12307,7 +12307,7 @@
         <v>0.86,[sal1,ara,atc]</v>
       </c>
       <c r="G45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -12315,7 +12315,7 @@
         <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C46" t="str">
         <f>B$18&amp;",["&amp;K17&amp;"]"</f>
@@ -12334,7 +12334,7 @@
         <v>2.36,[atc1,sal]</v>
       </c>
       <c r="G46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -12342,7 +12342,7 @@
         <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ref="C47:D47" si="14">B$18&amp;",["&amp;K18&amp;"]"</f>
@@ -12361,7 +12361,7 @@
         <v>2.36,[atc1,cin,sal]</v>
       </c>
       <c r="G47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -12369,7 +12369,7 @@
         <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ref="C48:D48" si="16">B$18&amp;",["&amp;K19&amp;"]"</f>
@@ -12388,7 +12388,7 @@
         <v>2.36,[atc1,ara,sal]</v>
       </c>
       <c r="G48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -12567,7 +12567,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13250,10 +13250,10 @@
         <v>200204</v>
       </c>
       <c r="B1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D1" s="1">
         <v>43853</v>
@@ -13268,7 +13268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -13301,7 +13301,7 @@
         <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -13601,7 +13601,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -13754,7 +13754,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J19">
         <v>300</v>
@@ -13971,7 +13971,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -14132,50 +14132,50 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14183,7 +14183,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -14191,7 +14191,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14207,7 +14207,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14215,7 +14215,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -14223,7 +14223,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -14231,7 +14231,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -14239,7 +14239,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -14247,7 +14247,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -14255,7 +14255,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -14263,7 +14263,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -14271,7 +14271,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -14279,7 +14279,7 @@
         <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -14287,7 +14287,7 @@
         <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -14295,135 +14295,135 @@
         <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B45" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B46" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B47" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B48" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B49" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -14455,15 +14455,15 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -14471,15 +14471,15 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -14495,15 +14495,15 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -14511,15 +14511,15 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -14684,10 +14684,10 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -14700,7 +14700,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B7" t="str">
         <f>B$6&amp;",["&amp;C$3&amp;"]"</f>
@@ -14713,7 +14713,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B8" t="str">
         <f>B$6&amp;",["&amp;D$3&amp;"]"</f>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B9" t="str">
         <f>B$6&amp;",["&amp;B$3&amp;"]"</f>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B10" t="str">
         <f>B$6&amp;",["&amp;B$3&amp;"]"</f>
@@ -14752,7 +14752,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ref="B11" si="0">B$6&amp;",["&amp;D$3&amp;"]"</f>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B12" t="str">
         <f>B$6&amp;",["&amp;C$3&amp;"]"</f>
@@ -14796,22 +14796,22 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -14821,10 +14821,10 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E8" t="str">
         <f>(E$7-LEFT(D8,FIND(",",D8)-1))&amp;",["&amp;$I$3&amp;"]"</f>
@@ -14833,13 +14833,13 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E9" t="str">
         <f>(E$7-LEFT(D9,FIND(",",D9)-1))&amp;",["&amp;$I$3&amp;"]"</f>
@@ -14848,13 +14848,13 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E10" t="str">
         <f>(E$7-LEFT(D10,FIND(",",D10)-1))&amp;",["&amp;$I$3&amp;"]"</f>
@@ -14863,10 +14863,10 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E11" t="str">
         <f>(E$7-LEFT(D11,FIND(",",D11)-1))&amp;",["&amp;$I$3&amp;"]"</f>
@@ -14875,13 +14875,13 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E12" t="str">
         <f>(E$7-LEFT(D12,FIND(",",D12)-1))&amp;",["&amp;$I$3&amp;"]"</f>
@@ -14890,7 +14890,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D13" t="str">
         <f>"21,["&amp;$F$3&amp;"]"</f>
@@ -14903,7 +14903,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -14935,7 +14935,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D16" t="str">
         <f>"19.7,["&amp;$F$3&amp;"]"</f>
@@ -14948,7 +14948,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -14964,7 +14964,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D18" t="str">
         <f>"22,["&amp;$G$3&amp;"]"</f>
@@ -14977,7 +14977,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -15009,7 +15009,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D21" t="str">
         <f>"21.5,["&amp;$G$3&amp;"]"</f>
@@ -15022,7 +15022,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -15038,7 +15038,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D23" t="str">
         <f>"19.3,["&amp;$H$3&amp;"]"</f>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -15083,7 +15083,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D26" t="str">
         <f>"18,["&amp;$H$3&amp;"]"</f>
@@ -15096,7 +15096,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C27" t="s">
         <v>70</v>
@@ -15158,32 +15158,32 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -15480,7 +15480,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -15553,7 +15553,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -15629,7 +15629,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -15704,7 +15704,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="3"/>
@@ -15777,7 +15777,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -15853,7 +15853,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -16366,10 +16366,10 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16397,7 +16397,7 @@
         <v>0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F8" si="1">E4&amp;",atc"</f>
@@ -16413,7 +16413,7 @@
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -16444,7 +16444,7 @@
         <v>0.08</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -16453,7 +16453,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -16481,7 +16481,7 @@
         <v>1,[sal,atc]</v>
       </c>
       <c r="F16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -16505,7 +16505,7 @@
         <v>0.75,[sal,atc]</v>
       </c>
       <c r="F17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16529,7 +16529,7 @@
         <v>0.5,[sal,atc]</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -16553,7 +16553,7 @@
         <v>0.17,[sal,atc]</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -16577,7 +16577,7 @@
         <v>0.08,[sal,atc]</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -16601,7 +16601,7 @@
         <v>1,[cin,sal,atc]</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -16625,7 +16625,7 @@
         <v>0.75,[cin,sal,atc]</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16649,7 +16649,7 @@
         <v>0.5,[cin,sal,atc]</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16673,7 +16673,7 @@
         <v>0.17,[cin,sal,atc]</v>
       </c>
       <c r="F24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -16697,7 +16697,7 @@
         <v>0.08,[cin,sal,atc]</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -16721,7 +16721,7 @@
         <v>1,[ara,sal,atc]</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -16745,7 +16745,7 @@
         <v>0.75,[ara,sal,atc]</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -16769,7 +16769,7 @@
         <v>0.5,[ara,sal,atc]</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -16793,7 +16793,7 @@
         <v>0.17,[ara,sal,atc]</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -16817,7 +16817,7 @@
         <v>0.08,[ara,sal,atc]</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alldata" sheetId="1" r:id="rId1"/>
@@ -2700,9 +2700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J123" sqref="J123"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13266,10 +13266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13278,7 +13278,7 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>150.14166666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1.9994000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -13594,12 +13594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>272</v>
       </c>
@@ -13622,31 +13622,34 @@
         <v>190207</v>
       </c>
       <c r="H14">
+        <v>190220</v>
+      </c>
+      <c r="I14">
         <v>190228</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>190308</v>
       </c>
-      <c r="J14">
-        <v>190417</v>
-      </c>
       <c r="K14">
+        <v>190428</v>
+      </c>
+      <c r="L14">
         <v>191011</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>191114</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>200131</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>201125</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>201212</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -13673,28 +13676,31 @@
         <v>15</v>
       </c>
       <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
         <v>150</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>30</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>300</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>286</v>
-      </c>
-      <c r="M15">
-        <v>300</v>
       </c>
       <c r="N15">
         <v>300</v>
       </c>
       <c r="O15">
+        <v>300</v>
+      </c>
+      <c r="P15">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -13715,13 +13721,16 @@
         <v>45</v>
       </c>
       <c r="H16">
+        <v>45</v>
+      </c>
+      <c r="I16">
         <v>300</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -13734,11 +13743,14 @@
       <c r="G17">
         <v>120</v>
       </c>
-      <c r="J17">
+      <c r="H17">
+        <v>120</v>
+      </c>
+      <c r="K17">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -13748,19 +13760,22 @@
       <c r="G18">
         <v>300</v>
       </c>
-      <c r="J18">
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="K18">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>328</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -13784,7 +13799,7 @@
         <v>0.6</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -13804,8 +13819,11 @@
       <c r="O20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -13849,8 +13867,11 @@
       <c r="O21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -13858,7 +13879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -13866,7 +13887,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13884,19 +13905,19 @@
         <v>5</v>
       </c>
       <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
         <v>15</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>100</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>10</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5</v>
-      </c>
-      <c r="L24">
-        <v>100</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -13905,10 +13926,13 @@
         <v>100</v>
       </c>
       <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -13926,19 +13950,22 @@
         <v>15</v>
       </c>
       <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25">
         <v>100</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>30</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>20</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -13948,14 +13975,17 @@
       <c r="G26">
         <v>40</v>
       </c>
-      <c r="J26">
+      <c r="H26">
+        <v>40</v>
+      </c>
+      <c r="K26">
         <v>50</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -13965,15 +13995,18 @@
       <c r="G27">
         <v>100</v>
       </c>
-      <c r="J27">
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="K27">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>100</v>
       </c>
     </row>

--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="alldata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="532">
   <si>
     <t>date_sequenced</t>
   </si>
@@ -1549,6 +1549,78 @@
   </si>
   <si>
     <t>42,[atc3,cin,sal3]</t>
+  </si>
+  <si>
+    <t>.16,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>.16,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>24.44,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>24.44,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>0.16,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>24.84,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>0.32,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>24.68,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>0.5,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>24.5,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>0.66,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>24.34,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>0.83,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>24.17,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>0.16,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>24.84,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>0.32,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>24.68,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>0.5,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>24.5,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>0.66,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>24.34,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>0.83,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>24.17,[sal,atc,cin]</t>
   </si>
 </sst>
 </file>
@@ -2698,11 +2770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S183"/>
+  <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57:XFD65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,7 +2866,7 @@
         <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2820,7 +2892,7 @@
         <v>75</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2846,7 +2918,7 @@
         <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2872,7 +2944,7 @@
         <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2898,7 +2970,7 @@
         <v>74</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2924,7 +2996,7 @@
         <v>75</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2950,7 +3022,7 @@
         <v>101</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2976,7 +3048,7 @@
         <v>76</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3032,7 +3104,7 @@
         <v>318</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -3088,7 +3160,7 @@
         <v>318</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3144,7 +3216,7 @@
         <v>318</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -3200,7 +3272,7 @@
         <v>318</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -3256,7 +3328,7 @@
         <v>318</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -3312,7 +3384,7 @@
         <v>318</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3368,7 +3440,7 @@
         <v>318</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -3424,7 +3496,7 @@
         <v>318</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -3480,7 +3552,7 @@
         <v>318</v>
       </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -3536,7 +3608,7 @@
         <v>318</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -3592,7 +3664,7 @@
         <v>318</v>
       </c>
       <c r="S20" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -3648,7 +3720,7 @@
         <v>318</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -3704,7 +3776,7 @@
         <v>318</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -3760,7 +3832,7 @@
         <v>318</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -3816,7 +3888,7 @@
         <v>318</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -3872,7 +3944,7 @@
         <v>318</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -3928,7 +4000,7 @@
         <v>318</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3984,7 +4056,7 @@
         <v>318</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -4040,7 +4112,7 @@
         <v>318</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -4096,7 +4168,7 @@
         <v>318</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -4146,7 +4218,7 @@
         <v>318</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -4196,7 +4268,7 @@
         <v>318</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -4246,7 +4318,7 @@
         <v>318</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -4296,7 +4368,7 @@
         <v>318</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -4346,7 +4418,7 @@
         <v>318</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -4396,7 +4468,7 @@
         <v>318</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -4446,7 +4518,7 @@
         <v>318</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -4496,7 +4568,7 @@
         <v>318</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -4546,7 +4618,7 @@
         <v>318</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -4596,7 +4668,7 @@
         <v>318</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4646,7 +4718,7 @@
         <v>318</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4696,7 +4768,7 @@
         <v>318</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4749,7 +4821,7 @@
         <v>318</v>
       </c>
       <c r="S42" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4802,7 +4874,7 @@
         <v>318</v>
       </c>
       <c r="S43" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -4855,7 +4927,7 @@
         <v>318</v>
       </c>
       <c r="S44" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4908,7 +4980,7 @@
         <v>318</v>
       </c>
       <c r="S45" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -4961,7 +5033,7 @@
         <v>318</v>
       </c>
       <c r="S46" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -5014,7 +5086,7 @@
         <v>318</v>
       </c>
       <c r="S47" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -5067,7 +5139,7 @@
         <v>318</v>
       </c>
       <c r="S48" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5120,7 +5192,7 @@
         <v>318</v>
       </c>
       <c r="S49" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -5173,7 +5245,7 @@
         <v>318</v>
       </c>
       <c r="S50" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -5226,7 +5298,7 @@
         <v>318</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -5279,7 +5351,7 @@
         <v>318</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -5332,7 +5404,7 @@
         <v>318</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -5385,7 +5457,7 @@
         <v>318</v>
       </c>
       <c r="S54" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -5438,7 +5510,7 @@
         <v>318</v>
       </c>
       <c r="S55" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -5491,7 +5563,7 @@
         <v>318</v>
       </c>
       <c r="S56" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -5544,7 +5616,7 @@
         <v>498</v>
       </c>
       <c r="S57" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -5597,7 +5669,7 @@
         <v>498</v>
       </c>
       <c r="S58" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -5650,7 +5722,7 @@
         <v>498</v>
       </c>
       <c r="S59" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -5703,7 +5775,7 @@
         <v>498</v>
       </c>
       <c r="S60" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -5756,7 +5828,7 @@
         <v>498</v>
       </c>
       <c r="S61" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -5809,7 +5881,7 @@
         <v>498</v>
       </c>
       <c r="S62" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -5862,7 +5934,7 @@
         <v>498</v>
       </c>
       <c r="S63" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -5915,7 +5987,7 @@
         <v>498</v>
       </c>
       <c r="S64" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -5968,7 +6040,7 @@
         <v>498</v>
       </c>
       <c r="S65" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -6024,7 +6096,7 @@
         <v>318</v>
       </c>
       <c r="S66" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -6080,7 +6152,7 @@
         <v>318</v>
       </c>
       <c r="S67" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -6136,7 +6208,7 @@
         <v>318</v>
       </c>
       <c r="S68" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -6192,7 +6264,7 @@
         <v>318</v>
       </c>
       <c r="S69" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -6248,7 +6320,7 @@
         <v>318</v>
       </c>
       <c r="S70" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -6304,7 +6376,7 @@
         <v>318</v>
       </c>
       <c r="S71" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -6360,7 +6432,7 @@
         <v>318</v>
       </c>
       <c r="S72" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -6416,7 +6488,7 @@
         <v>318</v>
       </c>
       <c r="S73" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -6472,7 +6544,7 @@
         <v>318</v>
       </c>
       <c r="S74" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -6528,7 +6600,7 @@
         <v>503</v>
       </c>
       <c r="S75" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -6584,7 +6656,7 @@
         <v>503</v>
       </c>
       <c r="S76" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -6640,7 +6712,7 @@
         <v>503</v>
       </c>
       <c r="S77" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -6696,7 +6768,7 @@
         <v>503</v>
       </c>
       <c r="S78" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -6752,7 +6824,7 @@
         <v>503</v>
       </c>
       <c r="S79" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -6808,7 +6880,7 @@
         <v>503</v>
       </c>
       <c r="S80" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -6864,7 +6936,7 @@
         <v>503</v>
       </c>
       <c r="S81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -6920,7 +6992,7 @@
         <v>503</v>
       </c>
       <c r="S82" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -6976,7 +7048,7 @@
         <v>503</v>
       </c>
       <c r="S83" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -7032,7 +7104,7 @@
         <v>503</v>
       </c>
       <c r="S84" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -7088,7 +7160,7 @@
         <v>503</v>
       </c>
       <c r="S85" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -7144,7 +7216,7 @@
         <v>503</v>
       </c>
       <c r="S86" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -7200,7 +7272,7 @@
         <v>503</v>
       </c>
       <c r="S87" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -7256,7 +7328,7 @@
         <v>503</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -7312,7 +7384,7 @@
         <v>503</v>
       </c>
       <c r="S89" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -7359,7 +7431,7 @@
         <v>503</v>
       </c>
       <c r="S90" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -7406,7 +7478,7 @@
         <v>503</v>
       </c>
       <c r="S91" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -7453,7 +7525,7 @@
         <v>503</v>
       </c>
       <c r="S92" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -7500,7 +7572,7 @@
         <v>503</v>
       </c>
       <c r="S93" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -7547,7 +7619,7 @@
         <v>503</v>
       </c>
       <c r="S94" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -7594,7 +7666,7 @@
         <v>503</v>
       </c>
       <c r="S95" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -7641,7 +7713,7 @@
         <v>503</v>
       </c>
       <c r="S96" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -7688,7 +7760,7 @@
         <v>503</v>
       </c>
       <c r="S97" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -7735,7 +7807,7 @@
         <v>503</v>
       </c>
       <c r="S98" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -7782,7 +7854,7 @@
         <v>503</v>
       </c>
       <c r="S99" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -7829,7 +7901,7 @@
         <v>503</v>
       </c>
       <c r="S100" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -7876,7 +7948,7 @@
         <v>503</v>
       </c>
       <c r="S101" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -7923,7 +7995,7 @@
         <v>503</v>
       </c>
       <c r="S102" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -7970,7 +8042,7 @@
         <v>503</v>
       </c>
       <c r="S103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -8017,7 +8089,7 @@
         <v>503</v>
       </c>
       <c r="S104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -8064,7 +8136,7 @@
         <v>503</v>
       </c>
       <c r="S105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -8111,7 +8183,7 @@
         <v>503</v>
       </c>
       <c r="S106" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -8158,7 +8230,7 @@
         <v>503</v>
       </c>
       <c r="S107" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -8205,7 +8277,7 @@
         <v>503</v>
       </c>
       <c r="S108" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -8252,7 +8324,7 @@
         <v>503</v>
       </c>
       <c r="S109" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -8299,7 +8371,7 @@
         <v>503</v>
       </c>
       <c r="S110" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -8346,7 +8418,7 @@
         <v>503</v>
       </c>
       <c r="S111" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -8393,7 +8465,7 @@
         <v>503</v>
       </c>
       <c r="S112" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
@@ -8440,7 +8512,7 @@
         <v>503</v>
       </c>
       <c r="S113" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
@@ -8487,7 +8559,7 @@
         <v>503</v>
       </c>
       <c r="S114" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -8534,7 +8606,7 @@
         <v>503</v>
       </c>
       <c r="S115" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -8584,7 +8656,7 @@
         <v>503</v>
       </c>
       <c r="S116" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -8634,7 +8706,7 @@
         <v>503</v>
       </c>
       <c r="S117" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -8684,7 +8756,7 @@
         <v>503</v>
       </c>
       <c r="S118" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -8734,7 +8806,7 @@
         <v>503</v>
       </c>
       <c r="S119" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -8784,7 +8856,7 @@
         <v>503</v>
       </c>
       <c r="S120" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -8834,7 +8906,7 @@
         <v>503</v>
       </c>
       <c r="S121" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -8884,7 +8956,7 @@
         <v>503</v>
       </c>
       <c r="S122" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -8934,7 +9006,7 @@
         <v>503</v>
       </c>
       <c r="S123" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
@@ -8984,7 +9056,7 @@
         <v>503</v>
       </c>
       <c r="S124" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -9034,7 +9106,7 @@
         <v>503</v>
       </c>
       <c r="S125" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -9084,7 +9156,7 @@
         <v>503</v>
       </c>
       <c r="S126" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -9134,7 +9206,7 @@
         <v>503</v>
       </c>
       <c r="S127" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
@@ -9175,7 +9247,7 @@
         <v>503</v>
       </c>
       <c r="S128" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -9216,7 +9288,7 @@
         <v>503</v>
       </c>
       <c r="S129" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -9263,7 +9335,7 @@
         <v>503</v>
       </c>
       <c r="S130" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -9304,7 +9376,7 @@
         <v>503</v>
       </c>
       <c r="S131" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -9345,7 +9417,7 @@
         <v>503</v>
       </c>
       <c r="S132" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -9392,7 +9464,7 @@
         <v>503</v>
       </c>
       <c r="S133" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -9433,7 +9505,7 @@
         <v>503</v>
       </c>
       <c r="S134" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -9474,7 +9546,7 @@
         <v>503</v>
       </c>
       <c r="S135" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -9521,7 +9593,7 @@
         <v>503</v>
       </c>
       <c r="S136" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -9562,7 +9634,7 @@
         <v>503</v>
       </c>
       <c r="S137" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -9603,7 +9675,7 @@
         <v>503</v>
       </c>
       <c r="S138" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -9650,7 +9722,7 @@
         <v>503</v>
       </c>
       <c r="S139" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -9694,7 +9766,7 @@
         <v>464</v>
       </c>
       <c r="S140" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -9738,7 +9810,7 @@
         <v>464</v>
       </c>
       <c r="S141" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -9788,7 +9860,7 @@
         <v>464</v>
       </c>
       <c r="S142" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -9832,7 +9904,7 @@
         <v>464</v>
       </c>
       <c r="S143" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
@@ -9876,7 +9948,7 @@
         <v>464</v>
       </c>
       <c r="S144" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
@@ -9926,7 +9998,7 @@
         <v>464</v>
       </c>
       <c r="S145" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -9970,7 +10042,7 @@
         <v>464</v>
       </c>
       <c r="S146" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -10014,7 +10086,7 @@
         <v>464</v>
       </c>
       <c r="S147" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -10064,7 +10136,7 @@
         <v>464</v>
       </c>
       <c r="S148" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
@@ -10108,7 +10180,7 @@
         <v>464</v>
       </c>
       <c r="S149" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -10152,7 +10224,7 @@
         <v>464</v>
       </c>
       <c r="S150" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
@@ -10202,7 +10274,7 @@
         <v>464</v>
       </c>
       <c r="S151" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
@@ -10249,7 +10321,7 @@
         <v>318</v>
       </c>
       <c r="S152" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
@@ -10296,7 +10368,7 @@
         <v>318</v>
       </c>
       <c r="S153" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -10343,7 +10415,7 @@
         <v>318</v>
       </c>
       <c r="S154" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
@@ -10390,7 +10462,7 @@
         <v>318</v>
       </c>
       <c r="S155" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -10437,7 +10509,7 @@
         <v>318</v>
       </c>
       <c r="S156" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -10484,7 +10556,7 @@
         <v>318</v>
       </c>
       <c r="S157" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
@@ -10531,7 +10603,7 @@
         <v>318</v>
       </c>
       <c r="S158" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
@@ -10578,7 +10650,7 @@
         <v>318</v>
       </c>
       <c r="S159" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
@@ -10625,7 +10697,7 @@
         <v>318</v>
       </c>
       <c r="S160" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
@@ -10672,7 +10744,7 @@
         <v>318</v>
       </c>
       <c r="S161" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
@@ -10719,7 +10791,7 @@
         <v>318</v>
       </c>
       <c r="S162" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -10766,7 +10838,7 @@
         <v>318</v>
       </c>
       <c r="S163" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -10813,7 +10885,7 @@
         <v>318</v>
       </c>
       <c r="S164" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -10860,7 +10932,7 @@
         <v>318</v>
       </c>
       <c r="S165" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -10907,7 +10979,7 @@
         <v>318</v>
       </c>
       <c r="S166" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
@@ -10954,7 +11026,7 @@
         <v>318</v>
       </c>
       <c r="S167" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
@@ -11001,7 +11073,7 @@
         <v>318</v>
       </c>
       <c r="S168" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
@@ -11048,7 +11120,7 @@
         <v>318</v>
       </c>
       <c r="S169" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
@@ -11095,7 +11167,7 @@
         <v>318</v>
       </c>
       <c r="S170" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
@@ -11142,7 +11214,7 @@
         <v>318</v>
       </c>
       <c r="S171" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
@@ -11189,7 +11261,7 @@
         <v>318</v>
       </c>
       <c r="S172" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
@@ -11236,7 +11308,7 @@
         <v>318</v>
       </c>
       <c r="S173" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
@@ -11283,7 +11355,7 @@
         <v>318</v>
       </c>
       <c r="S174" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
@@ -11330,7 +11402,7 @@
         <v>318</v>
       </c>
       <c r="S175" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
@@ -11377,7 +11449,7 @@
         <v>318</v>
       </c>
       <c r="S176" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
@@ -11424,7 +11496,7 @@
         <v>318</v>
       </c>
       <c r="S177" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
@@ -11471,7 +11543,7 @@
         <v>318</v>
       </c>
       <c r="S178" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
@@ -11518,7 +11590,7 @@
         <v>318</v>
       </c>
       <c r="S179" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
@@ -11565,7 +11637,7 @@
         <v>318</v>
       </c>
       <c r="S180" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
@@ -11612,7 +11684,7 @@
         <v>318</v>
       </c>
       <c r="S181" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
@@ -11659,7 +11731,7 @@
         <v>318</v>
       </c>
       <c r="S182" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
@@ -11706,7 +11778,1066 @@
         <v>318</v>
       </c>
       <c r="S183" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>210223</v>
+      </c>
+      <c r="B184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" t="s">
+        <v>482</v>
+      </c>
+      <c r="E184" t="s">
+        <v>452</v>
+      </c>
+      <c r="F184" t="s">
+        <v>453</v>
+      </c>
+      <c r="G184" t="s">
+        <v>41</v>
+      </c>
+      <c r="H184" t="s">
+        <v>478</v>
+      </c>
+      <c r="I184" t="s">
+        <v>512</v>
+      </c>
+      <c r="J184" t="s">
+        <v>513</v>
+      </c>
+      <c r="M184" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N184" t="s">
+        <v>483</v>
+      </c>
+      <c r="O184" t="s">
+        <v>278</v>
+      </c>
+      <c r="P184" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>318</v>
+      </c>
+      <c r="S184" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" t="s">
+        <v>482</v>
+      </c>
+      <c r="E185" t="s">
+        <v>452</v>
+      </c>
+      <c r="F185" t="s">
+        <v>453</v>
+      </c>
+      <c r="G185" t="s">
+        <v>41</v>
+      </c>
+      <c r="H185" t="s">
+        <v>478</v>
+      </c>
+      <c r="I185" t="s">
+        <v>514</v>
+      </c>
+      <c r="J185" t="s">
+        <v>515</v>
+      </c>
+      <c r="M185" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N185" t="s">
+        <v>483</v>
+      </c>
+      <c r="O185" t="s">
+        <v>278</v>
+      </c>
+      <c r="P185" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>318</v>
+      </c>
+      <c r="S185" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" t="s">
+        <v>482</v>
+      </c>
+      <c r="E186" t="s">
+        <v>452</v>
+      </c>
+      <c r="F186" t="s">
+        <v>453</v>
+      </c>
+      <c r="G186" t="s">
+        <v>41</v>
+      </c>
+      <c r="H186" t="s">
+        <v>478</v>
+      </c>
+      <c r="I186" t="s">
+        <v>516</v>
+      </c>
+      <c r="J186" t="s">
+        <v>517</v>
+      </c>
+      <c r="M186" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N186" t="s">
+        <v>483</v>
+      </c>
+      <c r="O186" t="s">
+        <v>278</v>
+      </c>
+      <c r="P186" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>318</v>
+      </c>
+      <c r="S186" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" t="s">
+        <v>482</v>
+      </c>
+      <c r="E187" t="s">
+        <v>452</v>
+      </c>
+      <c r="F187" t="s">
+        <v>453</v>
+      </c>
+      <c r="G187" t="s">
+        <v>41</v>
+      </c>
+      <c r="H187" t="s">
+        <v>478</v>
+      </c>
+      <c r="I187" t="s">
+        <v>518</v>
+      </c>
+      <c r="J187" t="s">
+        <v>519</v>
+      </c>
+      <c r="M187" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N187" t="s">
+        <v>483</v>
+      </c>
+      <c r="O187" t="s">
+        <v>278</v>
+      </c>
+      <c r="P187" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>318</v>
+      </c>
+      <c r="S187" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" t="s">
+        <v>482</v>
+      </c>
+      <c r="E188" t="s">
+        <v>452</v>
+      </c>
+      <c r="F188" t="s">
+        <v>453</v>
+      </c>
+      <c r="G188" t="s">
+        <v>41</v>
+      </c>
+      <c r="H188" t="s">
+        <v>478</v>
+      </c>
+      <c r="I188" t="s">
+        <v>520</v>
+      </c>
+      <c r="J188" t="s">
+        <v>521</v>
+      </c>
+      <c r="M188" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N188" t="s">
+        <v>483</v>
+      </c>
+      <c r="O188" t="s">
+        <v>278</v>
+      </c>
+      <c r="P188" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>318</v>
+      </c>
+      <c r="S188" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>66</v>
+      </c>
+      <c r="D189" t="s">
+        <v>482</v>
+      </c>
+      <c r="E189" t="s">
+        <v>452</v>
+      </c>
+      <c r="F189" t="s">
+        <v>453</v>
+      </c>
+      <c r="G189" t="s">
+        <v>41</v>
+      </c>
+      <c r="H189" t="s">
+        <v>478</v>
+      </c>
+      <c r="I189" t="s">
+        <v>509</v>
+      </c>
+      <c r="J189" t="s">
+        <v>510</v>
+      </c>
+      <c r="M189" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N189" t="s">
+        <v>483</v>
+      </c>
+      <c r="O189" t="s">
+        <v>278</v>
+      </c>
+      <c r="P189" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>318</v>
+      </c>
+      <c r="S189" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" t="s">
+        <v>482</v>
+      </c>
+      <c r="E190" t="s">
+        <v>452</v>
+      </c>
+      <c r="F190" t="s">
+        <v>453</v>
+      </c>
+      <c r="G190" t="s">
+        <v>41</v>
+      </c>
+      <c r="H190" t="s">
+        <v>478</v>
+      </c>
+      <c r="I190" t="s">
+        <v>522</v>
+      </c>
+      <c r="J190" t="s">
+        <v>523</v>
+      </c>
+      <c r="M190" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N190" t="s">
+        <v>483</v>
+      </c>
+      <c r="O190" t="s">
+        <v>278</v>
+      </c>
+      <c r="P190" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>318</v>
+      </c>
+      <c r="S190" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" t="s">
+        <v>482</v>
+      </c>
+      <c r="E191" t="s">
+        <v>452</v>
+      </c>
+      <c r="F191" t="s">
+        <v>453</v>
+      </c>
+      <c r="G191" t="s">
+        <v>41</v>
+      </c>
+      <c r="H191" t="s">
+        <v>478</v>
+      </c>
+      <c r="I191" t="s">
+        <v>524</v>
+      </c>
+      <c r="J191" t="s">
+        <v>525</v>
+      </c>
+      <c r="M191" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N191" t="s">
+        <v>483</v>
+      </c>
+      <c r="O191" t="s">
+        <v>278</v>
+      </c>
+      <c r="P191" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>318</v>
+      </c>
+      <c r="S191" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" t="s">
+        <v>482</v>
+      </c>
+      <c r="E192" t="s">
+        <v>452</v>
+      </c>
+      <c r="F192" t="s">
+        <v>453</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+      <c r="H192" t="s">
+        <v>478</v>
+      </c>
+      <c r="I192" t="s">
+        <v>526</v>
+      </c>
+      <c r="J192" t="s">
+        <v>527</v>
+      </c>
+      <c r="M192" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N192" t="s">
+        <v>483</v>
+      </c>
+      <c r="O192" t="s">
+        <v>278</v>
+      </c>
+      <c r="P192" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>318</v>
+      </c>
+      <c r="S192" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" t="s">
+        <v>482</v>
+      </c>
+      <c r="E193" t="s">
+        <v>452</v>
+      </c>
+      <c r="F193" t="s">
+        <v>453</v>
+      </c>
+      <c r="G193" t="s">
+        <v>41</v>
+      </c>
+      <c r="H193" t="s">
+        <v>478</v>
+      </c>
+      <c r="I193" t="s">
+        <v>528</v>
+      </c>
+      <c r="J193" t="s">
+        <v>529</v>
+      </c>
+      <c r="M193" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N193" t="s">
+        <v>483</v>
+      </c>
+      <c r="O193" t="s">
+        <v>278</v>
+      </c>
+      <c r="P193" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>318</v>
+      </c>
+      <c r="S193" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="194" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>482</v>
+      </c>
+      <c r="E194" t="s">
+        <v>452</v>
+      </c>
+      <c r="F194" t="s">
+        <v>453</v>
+      </c>
+      <c r="G194" t="s">
+        <v>41</v>
+      </c>
+      <c r="H194" t="s">
+        <v>478</v>
+      </c>
+      <c r="I194" t="s">
+        <v>530</v>
+      </c>
+      <c r="J194" t="s">
+        <v>531</v>
+      </c>
+      <c r="M194" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N194" t="s">
+        <v>483</v>
+      </c>
+      <c r="O194" t="s">
+        <v>278</v>
+      </c>
+      <c r="P194" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>318</v>
+      </c>
+      <c r="S194" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="195" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" t="s">
+        <v>482</v>
+      </c>
+      <c r="E195" t="s">
+        <v>452</v>
+      </c>
+      <c r="F195" t="s">
+        <v>453</v>
+      </c>
+      <c r="G195" t="s">
+        <v>41</v>
+      </c>
+      <c r="H195" t="s">
+        <v>478</v>
+      </c>
+      <c r="I195" t="s">
+        <v>508</v>
+      </c>
+      <c r="J195" t="s">
+        <v>511</v>
+      </c>
+      <c r="M195" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N195" t="s">
+        <v>483</v>
+      </c>
+      <c r="O195" t="s">
+        <v>278</v>
+      </c>
+      <c r="P195" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>318</v>
+      </c>
+      <c r="S195" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" t="s">
+        <v>482</v>
+      </c>
+      <c r="E196" t="s">
+        <v>452</v>
+      </c>
+      <c r="F196" t="s">
+        <v>453</v>
+      </c>
+      <c r="G196" t="s">
+        <v>41</v>
+      </c>
+      <c r="H196" t="s">
+        <v>481</v>
+      </c>
+      <c r="I196" t="s">
+        <v>512</v>
+      </c>
+      <c r="J196" t="s">
+        <v>513</v>
+      </c>
+      <c r="M196" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N196" t="s">
+        <v>483</v>
+      </c>
+      <c r="O196" t="s">
+        <v>278</v>
+      </c>
+      <c r="P196" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>318</v>
+      </c>
+      <c r="S196" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>482</v>
+      </c>
+      <c r="E197" t="s">
+        <v>452</v>
+      </c>
+      <c r="F197" t="s">
+        <v>453</v>
+      </c>
+      <c r="G197" t="s">
+        <v>41</v>
+      </c>
+      <c r="H197" t="s">
+        <v>481</v>
+      </c>
+      <c r="I197" t="s">
+        <v>514</v>
+      </c>
+      <c r="J197" t="s">
+        <v>515</v>
+      </c>
+      <c r="M197" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N197" t="s">
+        <v>483</v>
+      </c>
+      <c r="O197" t="s">
+        <v>278</v>
+      </c>
+      <c r="P197" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>318</v>
+      </c>
+      <c r="S197" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" t="s">
+        <v>482</v>
+      </c>
+      <c r="E198" t="s">
+        <v>452</v>
+      </c>
+      <c r="F198" t="s">
+        <v>453</v>
+      </c>
+      <c r="G198" t="s">
+        <v>41</v>
+      </c>
+      <c r="H198" t="s">
+        <v>481</v>
+      </c>
+      <c r="I198" t="s">
+        <v>516</v>
+      </c>
+      <c r="J198" t="s">
+        <v>517</v>
+      </c>
+      <c r="M198" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N198" t="s">
+        <v>483</v>
+      </c>
+      <c r="O198" t="s">
+        <v>278</v>
+      </c>
+      <c r="P198" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>318</v>
+      </c>
+      <c r="S198" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" t="s">
+        <v>482</v>
+      </c>
+      <c r="E199" t="s">
+        <v>452</v>
+      </c>
+      <c r="F199" t="s">
+        <v>453</v>
+      </c>
+      <c r="G199" t="s">
+        <v>41</v>
+      </c>
+      <c r="H199" t="s">
+        <v>481</v>
+      </c>
+      <c r="I199" t="s">
+        <v>518</v>
+      </c>
+      <c r="J199" t="s">
+        <v>519</v>
+      </c>
+      <c r="M199" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N199" t="s">
+        <v>483</v>
+      </c>
+      <c r="O199" t="s">
+        <v>278</v>
+      </c>
+      <c r="P199" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>318</v>
+      </c>
+      <c r="S199" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="200" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" t="s">
+        <v>482</v>
+      </c>
+      <c r="E200" t="s">
+        <v>452</v>
+      </c>
+      <c r="F200" t="s">
+        <v>453</v>
+      </c>
+      <c r="G200" t="s">
+        <v>41</v>
+      </c>
+      <c r="H200" t="s">
+        <v>481</v>
+      </c>
+      <c r="I200" t="s">
+        <v>520</v>
+      </c>
+      <c r="J200" t="s">
+        <v>521</v>
+      </c>
+      <c r="M200" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N200" t="s">
+        <v>483</v>
+      </c>
+      <c r="O200" t="s">
+        <v>278</v>
+      </c>
+      <c r="P200" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>318</v>
+      </c>
+      <c r="S200" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>66</v>
+      </c>
+      <c r="D201" t="s">
+        <v>482</v>
+      </c>
+      <c r="E201" t="s">
+        <v>452</v>
+      </c>
+      <c r="F201" t="s">
+        <v>453</v>
+      </c>
+      <c r="G201" t="s">
+        <v>41</v>
+      </c>
+      <c r="H201" t="s">
+        <v>481</v>
+      </c>
+      <c r="I201" t="s">
+        <v>509</v>
+      </c>
+      <c r="J201" t="s">
+        <v>510</v>
+      </c>
+      <c r="M201" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N201" t="s">
+        <v>483</v>
+      </c>
+      <c r="O201" t="s">
+        <v>278</v>
+      </c>
+      <c r="P201" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>318</v>
+      </c>
+      <c r="S201" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" t="s">
+        <v>482</v>
+      </c>
+      <c r="E202" t="s">
+        <v>452</v>
+      </c>
+      <c r="F202" t="s">
+        <v>453</v>
+      </c>
+      <c r="G202" t="s">
+        <v>41</v>
+      </c>
+      <c r="H202" t="s">
+        <v>481</v>
+      </c>
+      <c r="I202" t="s">
+        <v>522</v>
+      </c>
+      <c r="J202" t="s">
+        <v>523</v>
+      </c>
+      <c r="M202" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N202" t="s">
+        <v>483</v>
+      </c>
+      <c r="O202" t="s">
+        <v>278</v>
+      </c>
+      <c r="P202" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>318</v>
+      </c>
+      <c r="S202" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="203" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" t="s">
+        <v>482</v>
+      </c>
+      <c r="E203" t="s">
+        <v>452</v>
+      </c>
+      <c r="F203" t="s">
+        <v>453</v>
+      </c>
+      <c r="G203" t="s">
+        <v>41</v>
+      </c>
+      <c r="H203" t="s">
+        <v>481</v>
+      </c>
+      <c r="I203" t="s">
+        <v>524</v>
+      </c>
+      <c r="J203" t="s">
+        <v>525</v>
+      </c>
+      <c r="M203" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N203" t="s">
+        <v>483</v>
+      </c>
+      <c r="O203" t="s">
+        <v>278</v>
+      </c>
+      <c r="P203" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>318</v>
+      </c>
+      <c r="S203" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="204" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" t="s">
+        <v>482</v>
+      </c>
+      <c r="E204" t="s">
+        <v>452</v>
+      </c>
+      <c r="F204" t="s">
+        <v>453</v>
+      </c>
+      <c r="G204" t="s">
+        <v>41</v>
+      </c>
+      <c r="H204" t="s">
+        <v>481</v>
+      </c>
+      <c r="I204" t="s">
+        <v>526</v>
+      </c>
+      <c r="J204" t="s">
+        <v>527</v>
+      </c>
+      <c r="M204" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N204" t="s">
+        <v>483</v>
+      </c>
+      <c r="O204" t="s">
+        <v>278</v>
+      </c>
+      <c r="P204" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>318</v>
+      </c>
+      <c r="S204" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205" t="s">
+        <v>482</v>
+      </c>
+      <c r="E205" t="s">
+        <v>452</v>
+      </c>
+      <c r="F205" t="s">
+        <v>453</v>
+      </c>
+      <c r="G205" t="s">
+        <v>41</v>
+      </c>
+      <c r="H205" t="s">
+        <v>481</v>
+      </c>
+      <c r="I205" t="s">
+        <v>528</v>
+      </c>
+      <c r="J205" t="s">
+        <v>529</v>
+      </c>
+      <c r="M205" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N205" t="s">
+        <v>483</v>
+      </c>
+      <c r="O205" t="s">
+        <v>278</v>
+      </c>
+      <c r="P205" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>318</v>
+      </c>
+      <c r="S205" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="206" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>482</v>
+      </c>
+      <c r="E206" t="s">
+        <v>452</v>
+      </c>
+      <c r="F206" t="s">
+        <v>453</v>
+      </c>
+      <c r="G206" t="s">
+        <v>41</v>
+      </c>
+      <c r="H206" t="s">
+        <v>481</v>
+      </c>
+      <c r="I206" t="s">
+        <v>530</v>
+      </c>
+      <c r="J206" t="s">
+        <v>531</v>
+      </c>
+      <c r="M206" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N206" t="s">
+        <v>483</v>
+      </c>
+      <c r="O206" t="s">
+        <v>278</v>
+      </c>
+      <c r="P206" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>318</v>
+      </c>
+      <c r="S206" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>70</v>
+      </c>
+      <c r="D207" t="s">
+        <v>482</v>
+      </c>
+      <c r="E207" t="s">
+        <v>452</v>
+      </c>
+      <c r="F207" t="s">
+        <v>453</v>
+      </c>
+      <c r="G207" t="s">
+        <v>41</v>
+      </c>
+      <c r="H207" t="s">
+        <v>481</v>
+      </c>
+      <c r="I207" t="s">
+        <v>508</v>
+      </c>
+      <c r="J207" t="s">
+        <v>511</v>
+      </c>
+      <c r="M207" s="1">
+        <v>44245</v>
+      </c>
+      <c r="N207" t="s">
+        <v>483</v>
+      </c>
+      <c r="O207" t="s">
+        <v>278</v>
+      </c>
+      <c r="P207" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>318</v>
+      </c>
+      <c r="S207" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -13266,10 +14397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13278,7 +14409,7 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -13304,7 +14435,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -13332,7 +14463,7 @@
         <v>150.14166666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
@@ -13357,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -13385,7 +14516,7 @@
         <v>1.9994000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -13413,7 +14544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -13441,7 +14572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
@@ -13466,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -13494,7 +14625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -13519,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -13544,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -13569,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -13594,12 +14725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>272</v>
       </c>
@@ -13648,8 +14779,11 @@
       <c r="P14">
         <v>201212</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>210223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -13699,8 +14833,11 @@
       <c r="P15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -13730,7 +14867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -13750,7 +14887,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -13767,7 +14904,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>328</v>
       </c>
@@ -13775,7 +14912,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -13822,8 +14959,11 @@
       <c r="P20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -13870,8 +15010,11 @@
       <c r="P21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -13879,7 +15022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -13887,7 +15030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -13931,8 +15074,11 @@
       <c r="P24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -13965,7 +15111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -13985,7 +15131,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -14002,7 +15148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>

--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -2773,8 +2773,8 @@
   <dimension ref="A1:S207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F198" sqref="F198"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11829,6 +11829,9 @@
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>210223</v>
+      </c>
       <c r="B185" t="s">
         <v>20</v>
       </c>
@@ -11873,6 +11876,9 @@
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>210223</v>
+      </c>
       <c r="B186" t="s">
         <v>21</v>
       </c>
@@ -11917,6 +11923,9 @@
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>210223</v>
+      </c>
       <c r="B187" t="s">
         <v>22</v>
       </c>
@@ -11961,6 +11970,9 @@
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>210223</v>
+      </c>
       <c r="B188" t="s">
         <v>23</v>
       </c>
@@ -12005,6 +12017,9 @@
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>210223</v>
+      </c>
       <c r="B189" t="s">
         <v>66</v>
       </c>
@@ -12049,6 +12064,9 @@
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>210223</v>
+      </c>
       <c r="B190" t="s">
         <v>24</v>
       </c>
@@ -12093,6 +12111,9 @@
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>210223</v>
+      </c>
       <c r="B191" t="s">
         <v>25</v>
       </c>
@@ -12137,6 +12158,9 @@
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>210223</v>
+      </c>
       <c r="B192" t="s">
         <v>26</v>
       </c>
@@ -12180,7 +12204,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="193" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>210223</v>
+      </c>
       <c r="B193" t="s">
         <v>27</v>
       </c>
@@ -12224,7 +12251,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="194" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>210223</v>
+      </c>
       <c r="B194" t="s">
         <v>28</v>
       </c>
@@ -12268,7 +12298,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="195" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>210223</v>
+      </c>
       <c r="B195" t="s">
         <v>70</v>
       </c>
@@ -12312,7 +12345,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>210223</v>
+      </c>
       <c r="B196" t="s">
         <v>19</v>
       </c>
@@ -12356,7 +12392,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>210223</v>
+      </c>
       <c r="B197" t="s">
         <v>20</v>
       </c>
@@ -12400,7 +12439,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="198" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>210223</v>
+      </c>
       <c r="B198" t="s">
         <v>21</v>
       </c>
@@ -12444,7 +12486,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>210223</v>
+      </c>
       <c r="B199" t="s">
         <v>22</v>
       </c>
@@ -12488,7 +12533,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="200" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>210223</v>
+      </c>
       <c r="B200" t="s">
         <v>23</v>
       </c>
@@ -12532,7 +12580,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>210223</v>
+      </c>
       <c r="B201" t="s">
         <v>66</v>
       </c>
@@ -12576,7 +12627,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="202" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>210223</v>
+      </c>
       <c r="B202" t="s">
         <v>24</v>
       </c>
@@ -12620,7 +12674,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="203" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>210223</v>
+      </c>
       <c r="B203" t="s">
         <v>25</v>
       </c>
@@ -12664,7 +12721,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>210223</v>
+      </c>
       <c r="B204" t="s">
         <v>26</v>
       </c>
@@ -12708,7 +12768,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="205" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>210223</v>
+      </c>
       <c r="B205" t="s">
         <v>27</v>
       </c>
@@ -12752,7 +12815,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="206" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>210223</v>
+      </c>
       <c r="B206" t="s">
         <v>28</v>
       </c>
@@ -12796,7 +12862,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="207" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>210223</v>
+      </c>
       <c r="B207" t="s">
         <v>70</v>
       </c>

--- a/input/datasets.xlsx
+++ b/input/datasets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="559">
   <si>
     <t>date_sequenced</t>
   </si>
@@ -1621,6 +1621,87 @@
   </si>
   <si>
     <t>24.17,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>210429</t>
+  </si>
+  <si>
+    <t>24,[sal]</t>
+  </si>
+  <si>
+    <t>24,[sal,atc]</t>
+  </si>
+  <si>
+    <t>24,[sal,atc,cin]</t>
+  </si>
+  <si>
+    <t>24,[sal,atc,ara]</t>
+  </si>
+  <si>
+    <t>RBK004</t>
+  </si>
+  <si>
+    <t>210507</t>
+  </si>
+  <si>
+    <t>10,[]</t>
+  </si>
+  <si>
+    <t>210603</t>
+  </si>
+  <si>
+    <t>ara1</t>
+  </si>
+  <si>
+    <t>ara2</t>
+  </si>
+  <si>
+    <t>10,[atc]</t>
+  </si>
+  <si>
+    <t>25,[atc,sal]</t>
+  </si>
+  <si>
+    <t>10,[atc,ara2]</t>
+  </si>
+  <si>
+    <t>25,[atc,ara2,sal]</t>
+  </si>
+  <si>
+    <t>10,[atc,ara1]</t>
+  </si>
+  <si>
+    <t>25,[atc,ara1,sal]</t>
+  </si>
+  <si>
+    <t>10,[arc,ara]</t>
+  </si>
+  <si>
+    <t>25,[arc,ara,sal]</t>
+  </si>
+  <si>
+    <t>10,[atc,cin2]</t>
+  </si>
+  <si>
+    <t>25,[atc,cin2,sal]</t>
+  </si>
+  <si>
+    <t>10,[atc,cin1]</t>
+  </si>
+  <si>
+    <t>25,[atc,cin1,sal]</t>
+  </si>
+  <si>
+    <t>10,[atc,cin]</t>
+  </si>
+  <si>
+    <t>25,[atc,cin,sal]</t>
+  </si>
+  <si>
+    <t>25,[atc,ara2,sal1]</t>
+  </si>
+  <si>
+    <t>25,[atc,cin2,sal1]</t>
   </si>
 </sst>
 </file>
@@ -2770,17 +2851,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S207"/>
+  <dimension ref="A1:S228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H194" sqref="H194"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I188" sqref="I188:J188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12906,6 +12990,900 @@
         <v>318</v>
       </c>
       <c r="S207" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A208" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" t="s">
+        <v>482</v>
+      </c>
+      <c r="E208" t="s">
+        <v>452</v>
+      </c>
+      <c r="F208" t="s">
+        <v>453</v>
+      </c>
+      <c r="I208" t="s">
+        <v>92</v>
+      </c>
+      <c r="M208" s="1">
+        <v>44301</v>
+      </c>
+      <c r="N208" t="s">
+        <v>483</v>
+      </c>
+      <c r="O208" t="s">
+        <v>278</v>
+      </c>
+      <c r="P208" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>318</v>
+      </c>
+      <c r="R208" t="s">
+        <v>537</v>
+      </c>
+      <c r="S208" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A209" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209" t="s">
+        <v>482</v>
+      </c>
+      <c r="E209" t="s">
+        <v>452</v>
+      </c>
+      <c r="F209" t="s">
+        <v>453</v>
+      </c>
+      <c r="I209" t="s">
+        <v>533</v>
+      </c>
+      <c r="M209" s="1">
+        <v>44301</v>
+      </c>
+      <c r="N209" t="s">
+        <v>483</v>
+      </c>
+      <c r="O209" t="s">
+        <v>278</v>
+      </c>
+      <c r="P209" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>318</v>
+      </c>
+      <c r="R209" t="s">
+        <v>537</v>
+      </c>
+      <c r="S209" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A210" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" t="s">
+        <v>482</v>
+      </c>
+      <c r="E210" t="s">
+        <v>452</v>
+      </c>
+      <c r="F210" t="s">
+        <v>453</v>
+      </c>
+      <c r="I210" t="s">
+        <v>534</v>
+      </c>
+      <c r="M210" s="1">
+        <v>44301</v>
+      </c>
+      <c r="N210" t="s">
+        <v>483</v>
+      </c>
+      <c r="O210" t="s">
+        <v>278</v>
+      </c>
+      <c r="P210" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>318</v>
+      </c>
+      <c r="R210" t="s">
+        <v>537</v>
+      </c>
+      <c r="S210" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A211" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" t="s">
+        <v>482</v>
+      </c>
+      <c r="E211" t="s">
+        <v>452</v>
+      </c>
+      <c r="F211" t="s">
+        <v>453</v>
+      </c>
+      <c r="I211" t="s">
+        <v>535</v>
+      </c>
+      <c r="M211" s="1">
+        <v>44301</v>
+      </c>
+      <c r="N211" t="s">
+        <v>483</v>
+      </c>
+      <c r="O211" t="s">
+        <v>278</v>
+      </c>
+      <c r="P211" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>318</v>
+      </c>
+      <c r="R211" t="s">
+        <v>537</v>
+      </c>
+      <c r="S211" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A212" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" t="s">
+        <v>482</v>
+      </c>
+      <c r="E212" t="s">
+        <v>452</v>
+      </c>
+      <c r="F212" t="s">
+        <v>453</v>
+      </c>
+      <c r="I212" t="s">
+        <v>536</v>
+      </c>
+      <c r="M212" s="1">
+        <v>44301</v>
+      </c>
+      <c r="N212" t="s">
+        <v>483</v>
+      </c>
+      <c r="O212" t="s">
+        <v>278</v>
+      </c>
+      <c r="P212" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>318</v>
+      </c>
+      <c r="R212" t="s">
+        <v>537</v>
+      </c>
+      <c r="S212" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A213" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B213" t="s">
+        <v>66</v>
+      </c>
+      <c r="D213" t="s">
+        <v>482</v>
+      </c>
+      <c r="E213" t="s">
+        <v>452</v>
+      </c>
+      <c r="F213" t="s">
+        <v>453</v>
+      </c>
+      <c r="I213" t="s">
+        <v>92</v>
+      </c>
+      <c r="M213" s="1">
+        <v>44319</v>
+      </c>
+      <c r="N213" t="s">
+        <v>483</v>
+      </c>
+      <c r="O213" t="s">
+        <v>278</v>
+      </c>
+      <c r="P213" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>318</v>
+      </c>
+      <c r="R213" t="s">
+        <v>537</v>
+      </c>
+      <c r="S213" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A214" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>482</v>
+      </c>
+      <c r="E214" t="s">
+        <v>452</v>
+      </c>
+      <c r="F214" t="s">
+        <v>453</v>
+      </c>
+      <c r="I214" t="s">
+        <v>533</v>
+      </c>
+      <c r="M214" s="1">
+        <v>44319</v>
+      </c>
+      <c r="N214" t="s">
+        <v>483</v>
+      </c>
+      <c r="O214" t="s">
+        <v>278</v>
+      </c>
+      <c r="P214" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>318</v>
+      </c>
+      <c r="R214" t="s">
+        <v>537</v>
+      </c>
+      <c r="S214" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B215" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" t="s">
+        <v>482</v>
+      </c>
+      <c r="E215" t="s">
+        <v>452</v>
+      </c>
+      <c r="F215" t="s">
+        <v>453</v>
+      </c>
+      <c r="I215" t="s">
+        <v>534</v>
+      </c>
+      <c r="M215" s="1">
+        <v>44319</v>
+      </c>
+      <c r="N215" t="s">
+        <v>483</v>
+      </c>
+      <c r="O215" t="s">
+        <v>278</v>
+      </c>
+      <c r="P215" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>318</v>
+      </c>
+      <c r="R215" t="s">
+        <v>537</v>
+      </c>
+      <c r="S215" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A216" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" t="s">
+        <v>482</v>
+      </c>
+      <c r="E216" t="s">
+        <v>452</v>
+      </c>
+      <c r="F216" t="s">
+        <v>453</v>
+      </c>
+      <c r="I216" t="s">
+        <v>535</v>
+      </c>
+      <c r="M216" s="1">
+        <v>44319</v>
+      </c>
+      <c r="N216" t="s">
+        <v>483</v>
+      </c>
+      <c r="O216" t="s">
+        <v>278</v>
+      </c>
+      <c r="P216" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>318</v>
+      </c>
+      <c r="R216" t="s">
+        <v>537</v>
+      </c>
+      <c r="S216" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A217" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B217" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217" t="s">
+        <v>482</v>
+      </c>
+      <c r="E217" t="s">
+        <v>452</v>
+      </c>
+      <c r="F217" t="s">
+        <v>453</v>
+      </c>
+      <c r="I217" t="s">
+        <v>536</v>
+      </c>
+      <c r="M217" s="1">
+        <v>44319</v>
+      </c>
+      <c r="N217" t="s">
+        <v>483</v>
+      </c>
+      <c r="O217" t="s">
+        <v>278</v>
+      </c>
+      <c r="P217" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>318</v>
+      </c>
+      <c r="R217" t="s">
+        <v>537</v>
+      </c>
+      <c r="S217" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A218" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" t="s">
+        <v>482</v>
+      </c>
+      <c r="E218" t="s">
+        <v>452</v>
+      </c>
+      <c r="F218" t="s">
+        <v>453</v>
+      </c>
+      <c r="I218" t="s">
+        <v>539</v>
+      </c>
+      <c r="J218" t="s">
+        <v>488</v>
+      </c>
+      <c r="M218" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N218" t="s">
+        <v>483</v>
+      </c>
+      <c r="O218" t="s">
+        <v>278</v>
+      </c>
+      <c r="P218" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>318</v>
+      </c>
+      <c r="R218" t="s">
+        <v>537</v>
+      </c>
+      <c r="S218" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A219" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" t="s">
+        <v>482</v>
+      </c>
+      <c r="E219" t="s">
+        <v>452</v>
+      </c>
+      <c r="F219" t="s">
+        <v>453</v>
+      </c>
+      <c r="I219" t="s">
+        <v>543</v>
+      </c>
+      <c r="J219" t="s">
+        <v>544</v>
+      </c>
+      <c r="M219" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N219" t="s">
+        <v>483</v>
+      </c>
+      <c r="O219" t="s">
+        <v>278</v>
+      </c>
+      <c r="P219" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>318</v>
+      </c>
+      <c r="R219" t="s">
+        <v>537</v>
+      </c>
+      <c r="S219" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B220" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" t="s">
+        <v>482</v>
+      </c>
+      <c r="E220" t="s">
+        <v>452</v>
+      </c>
+      <c r="F220" t="s">
+        <v>453</v>
+      </c>
+      <c r="I220" t="s">
+        <v>545</v>
+      </c>
+      <c r="J220" t="s">
+        <v>546</v>
+      </c>
+      <c r="M220" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N220" t="s">
+        <v>483</v>
+      </c>
+      <c r="O220" t="s">
+        <v>278</v>
+      </c>
+      <c r="P220" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>318</v>
+      </c>
+      <c r="R220" t="s">
+        <v>537</v>
+      </c>
+      <c r="S220" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" t="s">
+        <v>482</v>
+      </c>
+      <c r="E221" t="s">
+        <v>452</v>
+      </c>
+      <c r="F221" t="s">
+        <v>453</v>
+      </c>
+      <c r="I221" t="s">
+        <v>547</v>
+      </c>
+      <c r="J221" t="s">
+        <v>548</v>
+      </c>
+      <c r="M221" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N221" t="s">
+        <v>483</v>
+      </c>
+      <c r="O221" t="s">
+        <v>278</v>
+      </c>
+      <c r="P221" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>318</v>
+      </c>
+      <c r="R221" t="s">
+        <v>537</v>
+      </c>
+      <c r="S221" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A222" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B222" t="s">
+        <v>66</v>
+      </c>
+      <c r="D222" t="s">
+        <v>482</v>
+      </c>
+      <c r="E222" t="s">
+        <v>452</v>
+      </c>
+      <c r="F222" t="s">
+        <v>453</v>
+      </c>
+      <c r="I222" t="s">
+        <v>549</v>
+      </c>
+      <c r="J222" t="s">
+        <v>550</v>
+      </c>
+      <c r="M222" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N222" t="s">
+        <v>483</v>
+      </c>
+      <c r="O222" t="s">
+        <v>278</v>
+      </c>
+      <c r="P222" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>318</v>
+      </c>
+      <c r="R222" t="s">
+        <v>537</v>
+      </c>
+      <c r="S222" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A223" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B223" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" t="s">
+        <v>482</v>
+      </c>
+      <c r="E223" t="s">
+        <v>452</v>
+      </c>
+      <c r="F223" t="s">
+        <v>453</v>
+      </c>
+      <c r="I223" t="s">
+        <v>551</v>
+      </c>
+      <c r="J223" t="s">
+        <v>552</v>
+      </c>
+      <c r="M223" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N223" t="s">
+        <v>483</v>
+      </c>
+      <c r="O223" t="s">
+        <v>278</v>
+      </c>
+      <c r="P223" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>318</v>
+      </c>
+      <c r="R223" t="s">
+        <v>537</v>
+      </c>
+      <c r="S223" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A224" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="D224" t="s">
+        <v>482</v>
+      </c>
+      <c r="E224" t="s">
+        <v>452</v>
+      </c>
+      <c r="F224" t="s">
+        <v>453</v>
+      </c>
+      <c r="I224" t="s">
+        <v>553</v>
+      </c>
+      <c r="J224" t="s">
+        <v>554</v>
+      </c>
+      <c r="M224" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N224" t="s">
+        <v>483</v>
+      </c>
+      <c r="O224" t="s">
+        <v>278</v>
+      </c>
+      <c r="P224" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>318</v>
+      </c>
+      <c r="R224" t="s">
+        <v>537</v>
+      </c>
+      <c r="S224" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A225" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B225" t="s">
+        <v>26</v>
+      </c>
+      <c r="D225" t="s">
+        <v>482</v>
+      </c>
+      <c r="E225" t="s">
+        <v>452</v>
+      </c>
+      <c r="F225" t="s">
+        <v>453</v>
+      </c>
+      <c r="I225" t="s">
+        <v>555</v>
+      </c>
+      <c r="J225" t="s">
+        <v>556</v>
+      </c>
+      <c r="M225" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N225" t="s">
+        <v>483</v>
+      </c>
+      <c r="O225" t="s">
+        <v>278</v>
+      </c>
+      <c r="P225" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>318</v>
+      </c>
+      <c r="R225" t="s">
+        <v>537</v>
+      </c>
+      <c r="S225" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A226" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B226" t="s">
+        <v>27</v>
+      </c>
+      <c r="D226" t="s">
+        <v>482</v>
+      </c>
+      <c r="E226" t="s">
+        <v>452</v>
+      </c>
+      <c r="F226" t="s">
+        <v>453</v>
+      </c>
+      <c r="I226" t="s">
+        <v>545</v>
+      </c>
+      <c r="J226" t="s">
+        <v>557</v>
+      </c>
+      <c r="M226" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N226" t="s">
+        <v>483</v>
+      </c>
+      <c r="O226" t="s">
+        <v>278</v>
+      </c>
+      <c r="P226" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>318</v>
+      </c>
+      <c r="R226" t="s">
+        <v>537</v>
+      </c>
+      <c r="S226" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A227" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>482</v>
+      </c>
+      <c r="E227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
+        <v>453</v>
+      </c>
+      <c r="I227" t="s">
+        <v>551</v>
+      </c>
+      <c r="J227" t="s">
+        <v>558</v>
+      </c>
+      <c r="M227" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N227" t="s">
+        <v>483</v>
+      </c>
+      <c r="O227" t="s">
+        <v>278</v>
+      </c>
+      <c r="P227" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>318</v>
+      </c>
+      <c r="R227" t="s">
+        <v>537</v>
+      </c>
+      <c r="S227" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A228" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B228" t="s">
+        <v>70</v>
+      </c>
+      <c r="D228" t="s">
+        <v>482</v>
+      </c>
+      <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
+        <v>453</v>
+      </c>
+      <c r="I228" t="s">
+        <v>539</v>
+      </c>
+      <c r="J228" t="s">
+        <v>78</v>
+      </c>
+      <c r="M228" s="1">
+        <v>44345</v>
+      </c>
+      <c r="N228" t="s">
+        <v>483</v>
+      </c>
+      <c r="O228" t="s">
+        <v>278</v>
+      </c>
+      <c r="P228" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>318</v>
+      </c>
+      <c r="R228" t="s">
+        <v>537</v>
+      </c>
+      <c r="S228" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14466,10 +15444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14478,7 +15456,7 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -14504,7 +15482,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -14532,7 +15510,7 @@
         <v>150.14166666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
@@ -14557,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -14585,7 +15563,7 @@
         <v>1.9994000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -14613,7 +15591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -14641,7 +15619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
@@ -14666,7 +15644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -14694,7 +15672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -14719,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -14744,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -14769,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
@@ -14794,12 +15772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>272</v>
       </c>
@@ -14851,8 +15829,17 @@
       <c r="Q14">
         <v>210223</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="S14">
+        <v>210507</v>
+      </c>
+      <c r="T14">
+        <v>210603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -14905,8 +15892,20 @@
       <c r="Q15">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f>4300000*34.88/500000</f>
+        <v>299.96800000000002</v>
+      </c>
+      <c r="S15">
+        <f>430000*6.977*40/(100*4000)</f>
+        <v>300.01100000000002</v>
+      </c>
+      <c r="T15">
+        <f>430000*1.05*2/15/200</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -14936,7 +15935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -14956,7 +15955,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -14973,7 +15972,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>328</v>
       </c>
@@ -14981,7 +15980,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -15031,8 +16030,20 @@
       <c r="Q20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f>1300*769.2/500000</f>
+        <v>1.9999200000000001</v>
+      </c>
+      <c r="S20">
+        <f>1300*15.38*40/(100*4000)</f>
+        <v>1.9994000000000001</v>
+      </c>
+      <c r="T20">
+        <f>1300*0.23*2/15/200</f>
+        <v>0.19933333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -15082,24 +16093,44 @@
       <c r="Q21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f>50000*50/500000</f>
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <f>50000*1*40/(100*4000)</f>
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <f>2500*0.3*2/15/200</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <f>2500*1.5*2/15/200</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <f>2500*3*2/15/200</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -15146,8 +16177,20 @@
       <c r="Q24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f>100*500000/500000</f>
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <f>500000*2*40/(100*4000)</f>
+        <v>100</v>
+      </c>
+      <c r="T24">
+        <f>100000*8*2/80/200</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -15179,8 +16222,12 @@
       <c r="P25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <f>100000*2.4*2/80/200</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -15200,7 +16247,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -15217,12 +16264,36 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
       <c r="K28">
         <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>541</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29">
+        <f>1300*1.15*2/15/200</f>
+        <v>0.99666666666666659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>542</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="T30">
+        <f>1300*2.31*2/15/200</f>
+        <v>2.0019999999999998</v>
       </c>
     </row>
   </sheetData>
